--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4EE837-E468-0340-AA33-F659D00F5540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6346BD17-ACEC-E842-A798-DC16958DEC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38160" yWindow="4280" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="559">
   <si>
     <t>Epoch</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>organisationIdentifier</t>
-  </si>
-  <si>
-    <t>organisationName</t>
-  </si>
-  <si>
-    <t>organisationType</t>
   </si>
   <si>
     <t>studyIdentifier</t>
@@ -1756,6 +1750,12 @@
   </si>
   <si>
     <t>Drug A</t>
+  </si>
+  <si>
+    <t>CT.gov</t>
+  </si>
+  <si>
+    <t>ACME</t>
   </si>
 </sst>
 </file>
@@ -2260,7 +2260,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2285,10 +2285,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2302,7 +2302,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2327,10 +2327,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2365,42 +2365,42 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="H9" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2410,33 +2410,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>155</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G11" s="15">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2543,205 +2543,205 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="G3" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2954,90 +2954,90 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
         <v>171</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>172</v>
       </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
         <v>173</v>
-      </c>
-      <c r="E5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3066,65 +3066,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>188</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
         <v>191</v>
-      </c>
-      <c r="B2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>195</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3157,137 +3157,137 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>203</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3314,104 +3314,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3438,16 +3438,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3456,1212 +3456,1212 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>554</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4685,18 +4685,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
         <v>166</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4706,22 +4706,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="52.5" customWidth="1"/>
+    <col min="2" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
@@ -4729,56 +4729,65 @@
         <v>31</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="G1" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4803,10 +4812,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -4814,10 +4823,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -4825,10 +4834,10 @@
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -4836,10 +4845,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -4847,10 +4856,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -4858,10 +4867,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -4869,10 +4878,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -4880,10 +4889,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -4891,10 +4900,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -4902,7 +4911,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -4911,10 +4920,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>11</v>
@@ -4923,41 +4932,41 @@
         <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4993,8 +5002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FA707-26D8-0546-9A99-D418F7F4E088}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5008,62 +5017,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>272</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5091,24 +5100,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>261</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5116,10 +5125,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5127,21 +5136,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5171,10 +5180,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -5190,15 +5199,15 @@
       </c>
       <c r="G1" s="31"/>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3</v>
@@ -5221,10 +5230,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>21</v>
@@ -5315,29 +5324,29 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5358,7 +5367,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5369,7 +5378,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -5441,16 +5450,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>281</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5458,7 +5467,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5466,13 +5475,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5500,72 +5509,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5592,72 +5601,72 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
         <v>76</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6346BD17-ACEC-E842-A798-DC16958DEC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC881A-4CAE-B74C-A38C-365196EB9679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="558">
   <si>
     <t>Epoch</t>
   </si>
@@ -804,12 +804,6 @@
   </si>
   <si>
     <t>Study Design 1</t>
-  </si>
-  <si>
-    <t>studyDesignName</t>
-  </si>
-  <si>
-    <t>studyDesignDescription</t>
   </si>
   <si>
     <t>procedureName</t>
@@ -1756,6 +1750,9 @@
   </si>
   <si>
     <t>ACME</t>
+  </si>
+  <si>
+    <t>Study Design One</t>
   </si>
 </sst>
 </file>
@@ -3072,10 +3069,10 @@
         <v>185</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>186</v>
@@ -3095,10 +3092,10 @@
         <v>190</v>
       </c>
       <c r="C2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D2" t="s">
         <v>255</v>
-      </c>
-      <c r="D2" t="s">
-        <v>257</v>
       </c>
       <c r="E2" t="s">
         <v>191</v>
@@ -3112,10 +3109,10 @@
         <v>190</v>
       </c>
       <c r="C3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" t="s">
         <v>256</v>
-      </c>
-      <c r="D3" t="s">
-        <v>258</v>
       </c>
       <c r="E3" t="s">
         <v>193</v>
@@ -3438,16 +3435,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3456,1212 +3453,1212 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>552</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4708,7 +4705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4729,10 +4726,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>58</v>
@@ -4755,7 +4752,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E2" t="s">
         <v>175</v>
@@ -4778,7 +4775,7 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E3" t="s">
         <v>174</v>
@@ -4797,10 +4794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4812,7 +4809,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>251</v>
+        <v>481</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>250</v>
@@ -4823,7 +4820,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>249</v>
@@ -4832,34 +4829,34 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B4" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -4867,21 +4864,21 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -4889,10 +4886,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -4900,10 +4897,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -4911,50 +4908,44 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="28"/>
+        <v>177</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>177</v>
+      </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>228</v>
@@ -4963,17 +4954,28 @@
         <v>229</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
@@ -4981,18 +4983,25 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5017,22 +5026,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>270</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5040,19 +5049,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5066,13 +5075,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5100,13 +5109,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>259</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5114,10 +5123,10 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5125,10 +5134,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5136,10 +5145,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5147,10 +5156,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5450,16 +5459,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>279</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5467,7 +5476,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5475,13 +5484,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBC881A-4CAE-B74C-A38C-365196EB9679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C85FD-7B71-7040-87C7-97334196C193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="559">
   <si>
     <t>Epoch</t>
   </si>
@@ -822,15 +822,6 @@
   </si>
   <si>
     <t>Test Nine</t>
-  </si>
-  <si>
-    <t>studyEpochName</t>
-  </si>
-  <si>
-    <t>studyEpochDescription</t>
-  </si>
-  <si>
-    <t>studyEpochType</t>
   </si>
   <si>
     <t>Screening Epoch</t>
@@ -1753,6 +1744,18 @@
   </si>
   <si>
     <t>Study Design One</t>
+  </si>
+  <si>
+    <t>SCRN</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>TRT</t>
+  </si>
+  <si>
+    <t>FU</t>
   </si>
 </sst>
 </file>
@@ -3435,16 +3438,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3453,1212 +3456,1212 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4726,10 +4729,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>58</v>
@@ -4752,7 +4755,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E2" t="s">
         <v>175</v>
@@ -4775,7 +4778,7 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E3" t="s">
         <v>174</v>
@@ -4796,8 +4799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4809,7 +4812,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>250</v>
@@ -4831,10 +4834,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -5026,22 +5029,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5049,19 +5052,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5075,13 +5078,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5094,72 +5097,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>257</v>
+        <v>478</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>555</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>267</v>
+        <v>558</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5459,16 +5478,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5476,7 +5495,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5484,13 +5503,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2C85FD-7B71-7040-87C7-97334196C193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8410F9A1-D519-3846-9368-F2A143AEF0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="559">
   <si>
     <t>Epoch</t>
   </si>
@@ -642,15 +642,6 @@
   </si>
   <si>
     <t>Basic study</t>
-  </si>
-  <si>
-    <t>encounterName</t>
-  </si>
-  <si>
-    <t>encounterDescription</t>
-  </si>
-  <si>
-    <t>encounterType</t>
   </si>
   <si>
     <t>encounterEnvironmentalSetting</t>
@@ -1756,6 +1747,15 @@
   </si>
   <si>
     <t>FU</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>SCREEN</t>
   </si>
 </sst>
 </file>
@@ -3072,10 +3072,10 @@
         <v>185</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>186</v>
@@ -3095,10 +3095,10 @@
         <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
         <v>191</v>
@@ -3112,10 +3112,10 @@
         <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
         <v>193</v>
@@ -3139,160 +3139,179 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="3" customWidth="1"/>
-    <col min="6" max="8" width="27.33203125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="21.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="3" customWidth="1"/>
+    <col min="7" max="9" width="27.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>217</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>213</v>
+      <c r="G6" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3317,101 +3336,101 @@
         <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3438,16 +3457,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3456,1212 +3475,1212 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>546</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -4729,10 +4748,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>58</v>
@@ -4755,7 +4774,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E2" t="s">
         <v>175</v>
@@ -4778,7 +4797,7 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E3" t="s">
         <v>174</v>
@@ -4812,10 +4831,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -4826,7 +4845,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -4834,10 +4853,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -4931,7 +4950,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -4951,16 +4970,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4968,16 +4987,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5029,22 +5048,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5052,19 +5071,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5078,13 +5097,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5099,7 +5118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E1D5BD-3A57-0140-9167-DAF5A3D4D9EF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5113,13 +5132,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>58</v>
@@ -5130,13 +5149,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5144,13 +5163,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5158,13 +5177,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5172,13 +5191,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5352,29 +5371,29 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5395,7 +5414,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5478,16 +5497,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5495,7 +5514,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5503,13 +5522,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8410F9A1-D519-3846-9368-F2A143AEF0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B33243C-5EB8-F247-8553-EF1FC0EF4500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="557">
   <si>
     <t>Epoch</t>
   </si>
@@ -611,9 +611,6 @@
     <t>procedureType</t>
   </si>
   <si>
-    <t>procedureCode</t>
-  </si>
-  <si>
     <t>procedureIsConditional</t>
   </si>
   <si>
@@ -795,12 +792,6 @@
   </si>
   <si>
     <t>Study Design 1</t>
-  </si>
-  <si>
-    <t>procedureName</t>
-  </si>
-  <si>
-    <t>procedureDescription</t>
   </si>
   <si>
     <t>Test8</t>
@@ -1756,6 +1747,9 @@
   </si>
   <si>
     <t>SCREEN</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -3049,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3072,59 +3066,59 @@
         <v>185</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>248</v>
+        <v>472</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>249</v>
+        <v>61</v>
       </c>
       <c r="E1" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>187</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
         <v>189</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
         <v>190</v>
-      </c>
-      <c r="C2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
         <v>192</v>
       </c>
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>194</v>
-      </c>
-      <c r="G3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3141,7 +3135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
@@ -3160,152 +3154,152 @@
         <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>199</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3336,101 +3330,101 @@
         <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>224</v>
-      </c>
       <c r="D1" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>199</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3457,16 +3451,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3475,1212 +3469,1212 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>543</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -4748,10 +4742,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>58</v>
@@ -4774,7 +4768,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E2" t="s">
         <v>175</v>
@@ -4797,7 +4791,7 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E3" t="s">
         <v>174</v>
@@ -4831,10 +4825,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -4845,7 +4839,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -4853,10 +4847,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -4878,7 +4872,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -4950,7 +4944,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -4970,16 +4964,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4987,16 +4981,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5048,22 +5042,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5071,19 +5065,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5097,13 +5091,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5132,13 +5126,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>58</v>
@@ -5149,13 +5143,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5163,13 +5157,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5177,13 +5171,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5191,13 +5185,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5371,29 +5365,29 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5414,7 +5408,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5497,16 +5491,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5514,7 +5508,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5522,13 +5516,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B33243C-5EB8-F247-8553-EF1FC0EF4500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8C8ED-A455-2145-B977-4C6682540D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="563">
   <si>
     <t>Epoch</t>
   </si>
@@ -1750,6 +1750,24 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>POP 1</t>
+  </si>
+  <si>
+    <t>POP 2</t>
+  </si>
+  <si>
+    <t>POP 3</t>
+  </si>
+  <si>
+    <t>Young populaton</t>
+  </si>
+  <si>
+    <t>Middle population</t>
+  </si>
+  <si>
+    <t>Elderly population</t>
   </si>
 </sst>
 </file>
@@ -3043,7 +3061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5625,88 +5643,112 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="2" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="B2">
+      <c r="C2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="B3">
+      <c r="C3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D3">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
       </c>
-      <c r="B4">
+      <c r="C4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D4">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>82</v>
       </c>
     </row>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8C8ED-A455-2145-B977-4C6682540D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B651ED7-0F6C-C749-A8D2-9074E258EE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="564">
   <si>
     <t>Epoch</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>INT2</t>
-  </si>
-  <si>
-    <t>objectiveXref</t>
   </si>
   <si>
     <t>endpointXref</t>
@@ -1768,6 +1765,12 @@
   </si>
   <si>
     <t>Elderly population</t>
+  </si>
+  <si>
+    <t>objectiveName</t>
+  </si>
+  <si>
+    <t>endpointName</t>
   </si>
 </sst>
 </file>
@@ -2325,10 +2328,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2339,10 +2342,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2353,10 +2356,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>159</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2377,42 +2380,42 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="H9" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2422,33 +2425,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="15">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2540,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2555,7 +2558,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>562</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>84</v>
@@ -2564,7 +2567,7 @@
         <v>85</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>113</v>
+        <v>563</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>86</v>
@@ -2578,7 +2581,7 @@
     </row>
     <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>89</v>
@@ -2587,7 +2590,7 @@
         <v>90</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>91</v>
@@ -2598,7 +2601,7 @@
     </row>
     <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
@@ -2607,7 +2610,7 @@
         <v>94</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>95</v>
@@ -2620,7 +2623,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>96</v>
@@ -2634,7 +2637,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>97</v>
@@ -2648,7 +2651,7 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>98</v>
@@ -2662,7 +2665,7 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>99</v>
@@ -2676,7 +2679,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>100</v>
@@ -2690,7 +2693,7 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>101</v>
@@ -2704,7 +2707,7 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>102</v>
@@ -2718,7 +2721,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>103</v>
@@ -2732,7 +2735,7 @@
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>104</v>
@@ -2746,7 +2749,7 @@
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>105</v>
@@ -2969,87 +2972,87 @@
         <v>107</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>69</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
         <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
         <v>169</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
         <v>170</v>
       </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>172</v>
       </c>
       <c r="F5" t="s">
         <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3081,62 +3084,62 @@
         <v>107</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F1" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>186</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
         <v>189</v>
-      </c>
-      <c r="C2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" t="s">
         <v>191</v>
       </c>
-      <c r="B3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>193</v>
-      </c>
-      <c r="G3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3172,152 +3175,152 @@
         <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3348,101 +3351,101 @@
         <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>223</v>
-      </c>
       <c r="D1" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="D5" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3469,16 +3472,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>274</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3487,1212 +3490,1212 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>541</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -4716,18 +4719,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4760,10 +4763,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>58</v>
@@ -4786,10 +4789,10 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -4809,10 +4812,10 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -4843,10 +4846,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -4857,7 +4860,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -4865,10 +4868,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -4879,7 +4882,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -4890,7 +4893,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -4901,7 +4904,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -4912,7 +4915,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -4923,7 +4926,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -4934,7 +4937,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -4942,10 +4945,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -4953,7 +4956,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -4962,7 +4965,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -4982,16 +4985,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4999,16 +5002,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>225</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5060,22 +5063,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>260</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5083,19 +5086,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5109,13 +5112,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5144,13 +5147,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>58</v>
@@ -5161,13 +5164,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5175,13 +5178,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5189,13 +5192,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5203,13 +5206,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5239,10 +5242,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -5263,10 +5266,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3</v>
@@ -5289,10 +5292,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>184</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>21</v>
@@ -5383,29 +5386,29 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5426,7 +5429,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5509,16 +5512,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5526,7 +5529,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5534,13 +5537,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
         <v>272</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5645,7 +5648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5666,7 +5669,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>71</v>
@@ -5685,13 +5688,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -5708,13 +5711,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -5731,13 +5734,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D4">
         <v>20</v>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B651ED7-0F6C-C749-A8D2-9074E258EE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A035B35B-B4F9-0A49-B74C-519D951BB33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" firstSheet="6" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="567">
   <si>
     <t>Epoch</t>
   </si>
@@ -714,12 +714,6 @@
   </si>
   <si>
     <t>Subject identified</t>
-  </si>
-  <si>
-    <t>studyElementName</t>
-  </si>
-  <si>
-    <t>studyElementDescription</t>
   </si>
   <si>
     <t>EL1</t>
@@ -1771,6 +1765,21 @@
   </si>
   <si>
     <t>endpointName</t>
+  </si>
+  <si>
+    <t>objectiveLabel</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
+  </si>
+  <si>
+    <t>TRT 1</t>
+  </si>
+  <si>
+    <t>TRT 2</t>
   </si>
 </sst>
 </file>
@@ -2541,45 +2550,48 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
+    <col min="2" max="3" width="44" customWidth="1"/>
+    <col min="4" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="59.5" customWidth="1"/>
+    <col min="7" max="8" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>563</v>
-      </c>
       <c r="E1" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>113</v>
       </c>
@@ -2587,19 +2599,22 @@
         <v>89</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>114</v>
       </c>
@@ -2607,341 +2622,377 @@
         <v>93</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3087,13 +3138,13 @@
         <v>184</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>185</v>
@@ -3110,10 +3161,10 @@
         <v>188</v>
       </c>
       <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
         <v>246</v>
-      </c>
-      <c r="D2" t="s">
-        <v>248</v>
       </c>
       <c r="E2" t="s">
         <v>189</v>
@@ -3127,10 +3178,10 @@
         <v>188</v>
       </c>
       <c r="C3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" t="s">
         <v>247</v>
-      </c>
-      <c r="D3" t="s">
-        <v>249</v>
       </c>
       <c r="E3" t="s">
         <v>191</v>
@@ -3175,13 +3226,13 @@
         <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>58</v>
@@ -3210,7 +3261,7 @@
         <v>199</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>204</v>
@@ -3239,7 +3290,7 @@
         <v>200</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>204</v>
@@ -3288,7 +3339,7 @@
         <v>202</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>204</v>
@@ -3311,7 +3362,7 @@
         <v>203</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>204</v>
@@ -3332,120 +3383,138 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="3" width="24.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="24.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>221</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>223</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3472,16 +3541,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3490,1212 +3559,1212 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>540</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4763,10 +4832,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>58</v>
@@ -4789,7 +4858,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E2" t="s">
         <v>174</v>
@@ -4812,7 +4881,7 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E3" t="s">
         <v>173</v>
@@ -4846,10 +4915,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -4860,7 +4929,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -4868,10 +4937,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -4985,16 +5054,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5002,16 +5071,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5063,22 +5132,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>258</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5086,19 +5155,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5112,13 +5181,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5147,13 +5216,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>58</v>
@@ -5164,13 +5233,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5178,13 +5247,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5192,13 +5261,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5206,13 +5275,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -5512,16 +5581,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>267</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5529,7 +5598,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5537,13 +5606,13 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5669,7 +5738,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>71</v>
@@ -5688,13 +5757,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -5711,13 +5780,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -5734,13 +5803,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D4">
         <v>20</v>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A035B35B-B4F9-0A49-B74C-519D951BB33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3E3D6-3634-6240-AE50-74780BE4EEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" firstSheet="6" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="565">
   <si>
     <t>Epoch</t>
   </si>
@@ -437,9 +437,6 @@
     <t>summaryMeasure</t>
   </si>
   <si>
-    <t>intercurrentEventName</t>
-  </si>
-  <si>
     <t>intercurrentEventStrategy</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
     <t>Survival of all patients</t>
   </si>
   <si>
-    <t>intercurrentEventDescription</t>
-  </si>
-  <si>
     <t>IC Event Description</t>
   </si>
   <si>
@@ -843,12 +837,6 @@
   </si>
   <si>
     <t>Placebo Comparator Arm</t>
-  </si>
-  <si>
-    <t>activityName</t>
-  </si>
-  <si>
-    <t>activityDescription</t>
   </si>
   <si>
     <t>activityIsConditional</t>
@@ -1780,6 +1768,12 @@
   </si>
   <si>
     <t>TRT 2</t>
+  </si>
+  <si>
+    <t>ICE 1</t>
+  </si>
+  <si>
+    <t>ICE 2</t>
   </si>
 </sst>
 </file>
@@ -2337,10 +2331,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2351,10 +2345,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2365,10 +2359,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -2389,42 +2383,42 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="F9" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="H9" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -2434,33 +2428,33 @@
         <v>40179</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G11" s="15">
         <v>40544</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2567,19 +2561,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>86</v>
@@ -2599,7 +2593,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>90</v>
@@ -2622,7 +2616,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>94</v>
@@ -3002,23 +2996,25 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="61.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="61.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>107</v>
       </c>
@@ -3029,81 +3025,90 @@
         <v>69</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" t="s">
         <v>133</v>
       </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" t="s">
+      <c r="B5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
         <v>168</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>169</v>
       </c>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>564</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" t="s">
         <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3135,62 +3140,62 @@
         <v>107</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>61</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>191</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3226,152 +3231,152 @@
         <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>58</v>
       </c>
       <c r="F1" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>196</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>207</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="F5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3402,119 +3407,119 @@
         <v>107</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3541,16 +3546,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3559,1212 +3564,1212 @@
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B23" s="26"/>
       <c r="C23" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B24" s="26"/>
       <c r="C24" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B30" s="26"/>
       <c r="C30" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B32" s="26"/>
       <c r="C32" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B33" s="26"/>
       <c r="C33" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B35" s="26"/>
       <c r="C35" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="10" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B54" s="26"/>
       <c r="C54" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B55" s="26"/>
       <c r="C55" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B56" s="26"/>
       <c r="C56" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B59" s="26"/>
       <c r="C59" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B60" s="26"/>
       <c r="C60" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B61" s="26"/>
       <c r="C61" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B62" s="26"/>
       <c r="C62" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B63" s="26"/>
       <c r="C63" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B64" s="26"/>
       <c r="C64" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B65" s="26"/>
       <c r="C65" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B66" s="26"/>
       <c r="C66" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B68" s="26"/>
       <c r="C68" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B69" s="26"/>
       <c r="C69" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B111" s="26"/>
       <c r="C111" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B112" s="26"/>
       <c r="C112" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B113" s="26"/>
       <c r="C113" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B114" s="26"/>
       <c r="C114" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B115" s="26"/>
       <c r="C115" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B116" s="26"/>
       <c r="C116" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B117" s="26"/>
       <c r="C117" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B119" s="26"/>
       <c r="C119" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B120" s="26"/>
       <c r="C120" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B121" s="26"/>
       <c r="C121" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B122" s="26"/>
       <c r="C122" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B123" s="26"/>
       <c r="C123" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B125" s="26"/>
       <c r="C125" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B126" s="26"/>
       <c r="C126" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B127" s="26"/>
       <c r="C127" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B128" s="26"/>
       <c r="C128" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B129" s="26"/>
       <c r="C129" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B130" s="26"/>
       <c r="C130" s="10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B131" s="26"/>
       <c r="C131" s="10" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B132" s="26"/>
       <c r="C132" s="10" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -4788,18 +4793,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
         <v>163</v>
-      </c>
-      <c r="B1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4832,10 +4837,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>58</v>
@@ -4858,10 +4863,10 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -4881,10 +4886,10 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -4915,10 +4920,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -4929,7 +4934,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -4937,10 +4942,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>541</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>545</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -4951,7 +4956,7 @@
         <v>42</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -4962,7 +4967,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -4973,7 +4978,7 @@
         <v>44</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -4984,7 +4989,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -4995,7 +5000,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -5006,7 +5011,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -5014,10 +5019,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -5025,7 +5030,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -5034,7 +5039,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -5054,16 +5059,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5071,16 +5076,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5132,22 +5137,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>256</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5155,19 +5160,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5181,13 +5186,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5216,13 +5221,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>58</v>
@@ -5233,13 +5238,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5247,13 +5252,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5261,13 +5266,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5275,13 +5280,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5293,7 +5298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -5311,10 +5316,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -5335,10 +5340,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3</v>
@@ -5361,10 +5366,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>21</v>
@@ -5455,29 +5460,29 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5498,7 +5503,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5564,60 +5569,70 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="24" style="7" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="2" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="24" style="7" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>264</v>
+        <v>465</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>537</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5738,7 +5753,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>71</v>
@@ -5757,13 +5772,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -5780,13 +5795,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -5803,13 +5818,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D4">
         <v>20</v>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3E3D6-3634-6240-AE50-74780BE4EEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6501A-4A09-A046-BD5F-A65756D807E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -4907,7 +4907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -5298,7 +5298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6501A-4A09-A046-BD5F-A65756D807E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6C1A84-2CB2-694F-AA48-32ED063D0F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66180" yWindow="7680" windowWidth="33600" windowHeight="19480" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="563">
   <si>
     <t>Epoch</t>
   </si>
@@ -488,12 +488,6 @@
     <t>protocolVersion</t>
   </si>
   <si>
-    <t>protocolAmendment</t>
-  </si>
-  <si>
-    <t>protocolEffectiveDate</t>
-  </si>
-  <si>
     <t>protocolStatus</t>
   </si>
   <si>
@@ -506,16 +500,10 @@
     <t>Something Public</t>
   </si>
   <si>
-    <t>Somethign Clever</t>
-  </si>
-  <si>
     <t>draft</t>
   </si>
   <si>
     <t>Somethign Clever But New</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>businessTherapeuticAreas</t>
@@ -1774,6 +1762,12 @@
   </si>
   <si>
     <t>ICE 2</t>
+  </si>
+  <si>
+    <t>studyType</t>
+  </si>
+  <si>
+    <t>NEW-LABELS-1</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1895,9 +1889,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1934,10 +1925,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2258,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2274,267 +2265,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B7" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="B10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="B11" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="B12" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="B13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="B14" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="15">
-        <v>40179</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="15">
-        <v>40544</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
       <c r="H19" s="1"/>
     </row>
   </sheetData>
@@ -2561,19 +2492,19 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>86</v>
@@ -2593,7 +2524,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>90</v>
@@ -2616,7 +2547,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>94</v>
@@ -3025,13 +2956,13 @@
         <v>69</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>61</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>129</v>
@@ -3060,7 +2991,7 @@
         <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G2" t="s">
         <v>109</v>
@@ -3074,32 +3005,32 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
         <v>131</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G5" t="s">
         <v>111</v>
@@ -3108,7 +3039,7 @@
         <v>116</v>
       </c>
       <c r="I5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3139,63 +3070,63 @@
       <c r="A1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>549</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>184</v>
+      <c r="E1" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3227,156 +3158,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>196</v>
+      <c r="F1" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3403,123 +3334,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>196</v>
+      <c r="D1" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3545,1231 +3476,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>268</v>
+      <c r="A1" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="B13" s="26"/>
+        <v>395</v>
+      </c>
+      <c r="B13" s="25"/>
       <c r="C13" s="10" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B14" s="26"/>
+        <v>405</v>
+      </c>
+      <c r="B14" s="25"/>
       <c r="C14" s="10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B15" s="26"/>
+        <v>406</v>
+      </c>
+      <c r="B15" s="25"/>
       <c r="C15" s="10" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B16" s="26"/>
+        <v>407</v>
+      </c>
+      <c r="B16" s="25"/>
       <c r="C16" s="10" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B17" s="26"/>
+        <v>408</v>
+      </c>
+      <c r="B17" s="25"/>
       <c r="C17" s="10" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B18" s="26"/>
+        <v>484</v>
+      </c>
+      <c r="B18" s="25"/>
       <c r="C18" s="10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B19" s="26"/>
+        <v>485</v>
+      </c>
+      <c r="B19" s="25"/>
       <c r="C19" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B20" s="26"/>
+        <v>462</v>
+      </c>
+      <c r="B20" s="25"/>
       <c r="C20" s="10" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B21" s="26"/>
+        <v>486</v>
+      </c>
+      <c r="B21" s="25"/>
       <c r="C21" s="10" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B22" s="26"/>
+        <v>487</v>
+      </c>
+      <c r="B22" s="25"/>
       <c r="C22" s="10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B23" s="26"/>
+        <v>488</v>
+      </c>
+      <c r="B23" s="25"/>
       <c r="C23" s="10" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B24" s="26"/>
+        <v>489</v>
+      </c>
+      <c r="B24" s="25"/>
       <c r="C24" s="10" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B25" s="26"/>
+        <v>490</v>
+      </c>
+      <c r="B25" s="25"/>
       <c r="C25" s="10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B26" s="26"/>
+        <v>451</v>
+      </c>
+      <c r="B26" s="25"/>
       <c r="C26" s="10" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B27" s="26"/>
+        <v>452</v>
+      </c>
+      <c r="B27" s="25"/>
       <c r="C27" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B28" s="26"/>
+        <v>453</v>
+      </c>
+      <c r="B28" s="25"/>
       <c r="C28" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>458</v>
-      </c>
-      <c r="B29" s="26"/>
+        <v>454</v>
+      </c>
+      <c r="B29" s="25"/>
       <c r="C29" s="10" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B30" s="26"/>
+        <v>491</v>
+      </c>
+      <c r="B30" s="25"/>
       <c r="C30" s="10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B31" s="26"/>
+        <v>463</v>
+      </c>
+      <c r="B31" s="25"/>
       <c r="C31" s="10" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B32" s="26"/>
+        <v>492</v>
+      </c>
+      <c r="B32" s="25"/>
       <c r="C32" s="10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B33" s="26"/>
+        <v>493</v>
+      </c>
+      <c r="B33" s="25"/>
       <c r="C33" s="10" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B34" s="26"/>
+        <v>494</v>
+      </c>
+      <c r="B34" s="25"/>
       <c r="C34" s="10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B35" s="26"/>
+        <v>409</v>
+      </c>
+      <c r="B35" s="25"/>
       <c r="C35" s="10" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B36" s="26"/>
+        <v>495</v>
+      </c>
+      <c r="B36" s="25"/>
       <c r="C36" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B37" s="26"/>
+        <v>496</v>
+      </c>
+      <c r="B37" s="25"/>
       <c r="C37" s="10" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B38" s="26"/>
+        <v>410</v>
+      </c>
+      <c r="B38" s="25"/>
       <c r="C38" s="10" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B39" s="26"/>
+        <v>411</v>
+      </c>
+      <c r="B39" s="25"/>
       <c r="C39" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B40" s="26"/>
+        <v>412</v>
+      </c>
+      <c r="B40" s="25"/>
       <c r="C40" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="B41" s="26"/>
+        <v>497</v>
+      </c>
+      <c r="B41" s="25"/>
       <c r="C41" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="B42" s="26"/>
+        <v>413</v>
+      </c>
+      <c r="B42" s="25"/>
       <c r="C42" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B43" s="26"/>
+        <v>414</v>
+      </c>
+      <c r="B43" s="25"/>
       <c r="C43" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B44" s="26"/>
+        <v>415</v>
+      </c>
+      <c r="B44" s="25"/>
       <c r="C44" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B45" s="26"/>
+        <v>498</v>
+      </c>
+      <c r="B45" s="25"/>
       <c r="C45" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B46" s="26"/>
+        <v>499</v>
+      </c>
+      <c r="B46" s="25"/>
       <c r="C46" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B47" s="26"/>
+        <v>416</v>
+      </c>
+      <c r="B47" s="25"/>
       <c r="C47" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B48" s="26"/>
+        <v>417</v>
+      </c>
+      <c r="B48" s="25"/>
       <c r="C48" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B49" s="26"/>
+        <v>418</v>
+      </c>
+      <c r="B49" s="25"/>
       <c r="C49" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="B50" s="26"/>
+        <v>419</v>
+      </c>
+      <c r="B50" s="25"/>
       <c r="C50" s="10" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B51" s="26"/>
+        <v>464</v>
+      </c>
+      <c r="B51" s="25"/>
       <c r="C51" s="10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="B52" s="26"/>
+        <v>500</v>
+      </c>
+      <c r="B52" s="25"/>
       <c r="C52" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B53" s="26"/>
+        <v>420</v>
+      </c>
+      <c r="B53" s="25"/>
       <c r="C53" s="10" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B54" s="26"/>
+        <v>421</v>
+      </c>
+      <c r="B54" s="25"/>
       <c r="C54" s="10" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B55" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="B55" s="25"/>
       <c r="C55" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B56" s="26"/>
+        <v>502</v>
+      </c>
+      <c r="B56" s="25"/>
       <c r="C56" s="10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B57" s="26"/>
+        <v>503</v>
+      </c>
+      <c r="B57" s="25"/>
       <c r="C57" s="10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B58" s="26"/>
+        <v>504</v>
+      </c>
+      <c r="B58" s="25"/>
       <c r="C58" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B59" s="26"/>
+        <v>465</v>
+      </c>
+      <c r="B59" s="25"/>
       <c r="C59" s="10" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B60" s="26"/>
+        <v>505</v>
+      </c>
+      <c r="B60" s="25"/>
       <c r="C60" s="10" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B61" s="26"/>
+        <v>506</v>
+      </c>
+      <c r="B61" s="25"/>
       <c r="C61" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B62" s="26"/>
+        <v>507</v>
+      </c>
+      <c r="B62" s="25"/>
       <c r="C62" s="10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="B63" s="26"/>
+        <v>455</v>
+      </c>
+      <c r="B63" s="25"/>
       <c r="C63" s="10" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="B64" s="26"/>
+        <v>423</v>
+      </c>
+      <c r="B64" s="25"/>
       <c r="C64" s="10" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B65" s="26"/>
+        <v>424</v>
+      </c>
+      <c r="B65" s="25"/>
       <c r="C65" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B66" s="26"/>
+        <v>425</v>
+      </c>
+      <c r="B66" s="25"/>
       <c r="C66" s="10" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B67" s="26"/>
+        <v>426</v>
+      </c>
+      <c r="B67" s="25"/>
       <c r="C67" s="10" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B68" s="26"/>
+        <v>508</v>
+      </c>
+      <c r="B68" s="25"/>
       <c r="C68" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="B69" s="26"/>
+        <v>456</v>
+      </c>
+      <c r="B69" s="25"/>
       <c r="C69" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B70" s="26"/>
+        <v>427</v>
+      </c>
+      <c r="B70" s="25"/>
       <c r="C70" s="10" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B71" s="26"/>
+        <v>428</v>
+      </c>
+      <c r="B71" s="25"/>
       <c r="C71" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B72" s="26"/>
+        <v>429</v>
+      </c>
+      <c r="B72" s="25"/>
       <c r="C72" s="10" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B73" s="26"/>
+        <v>430</v>
+      </c>
+      <c r="B73" s="25"/>
       <c r="C73" s="10" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B74" s="26"/>
+        <v>431</v>
+      </c>
+      <c r="B74" s="25"/>
       <c r="C74" s="10" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B75" s="26"/>
+        <v>432</v>
+      </c>
+      <c r="B75" s="25"/>
       <c r="C75" s="10" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B76" s="26"/>
+        <v>433</v>
+      </c>
+      <c r="B76" s="25"/>
       <c r="C76" s="10" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B77" s="26"/>
+        <v>434</v>
+      </c>
+      <c r="B77" s="25"/>
       <c r="C77" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B78" s="26"/>
+        <v>435</v>
+      </c>
+      <c r="B78" s="25"/>
       <c r="C78" s="10" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B79" s="26"/>
+        <v>509</v>
+      </c>
+      <c r="B79" s="25"/>
       <c r="C79" s="10" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B80" s="26"/>
+        <v>436</v>
+      </c>
+      <c r="B80" s="25"/>
       <c r="C80" s="10" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B81" s="26"/>
+        <v>437</v>
+      </c>
+      <c r="B81" s="25"/>
       <c r="C81" s="10" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B82" s="26"/>
+        <v>510</v>
+      </c>
+      <c r="B82" s="25"/>
       <c r="C82" s="10" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="B83" s="26"/>
+        <v>438</v>
+      </c>
+      <c r="B83" s="25"/>
       <c r="C83" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B84" s="26"/>
+        <v>439</v>
+      </c>
+      <c r="B84" s="25"/>
       <c r="C84" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B85" s="26"/>
+        <v>440</v>
+      </c>
+      <c r="B85" s="25"/>
       <c r="C85" s="10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B86" s="26"/>
+        <v>441</v>
+      </c>
+      <c r="B86" s="25"/>
       <c r="C86" s="10" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B87" s="26"/>
+        <v>442</v>
+      </c>
+      <c r="B87" s="25"/>
       <c r="C87" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B88" s="26"/>
+        <v>511</v>
+      </c>
+      <c r="B88" s="25"/>
       <c r="C88" s="10" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B89" s="26"/>
+        <v>512</v>
+      </c>
+      <c r="B89" s="25"/>
       <c r="C89" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B90" s="26"/>
+        <v>513</v>
+      </c>
+      <c r="B90" s="25"/>
       <c r="C90" s="10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B91" s="26"/>
+        <v>505</v>
+      </c>
+      <c r="B91" s="25"/>
       <c r="C91" s="10" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="B92" s="26"/>
+        <v>457</v>
+      </c>
+      <c r="B92" s="25"/>
       <c r="C92" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B93" s="26"/>
+        <v>466</v>
+      </c>
+      <c r="B93" s="25"/>
       <c r="C93" s="10" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B94" s="26"/>
+        <v>514</v>
+      </c>
+      <c r="B94" s="25"/>
       <c r="C94" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B95" s="26"/>
+        <v>515</v>
+      </c>
+      <c r="B95" s="25"/>
       <c r="C95" s="10" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="B96" s="26"/>
+        <v>443</v>
+      </c>
+      <c r="B96" s="25"/>
       <c r="C96" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B97" s="26"/>
+        <v>444</v>
+      </c>
+      <c r="B97" s="25"/>
       <c r="C97" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B98" s="26"/>
+        <v>445</v>
+      </c>
+      <c r="B98" s="25"/>
       <c r="C98" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B99" s="26"/>
+        <v>446</v>
+      </c>
+      <c r="B99" s="25"/>
       <c r="C99" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B100" s="26"/>
+        <v>447</v>
+      </c>
+      <c r="B100" s="25"/>
       <c r="C100" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B101" s="26"/>
+        <v>516</v>
+      </c>
+      <c r="B101" s="25"/>
       <c r="C101" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B102" s="26"/>
+        <v>517</v>
+      </c>
+      <c r="B102" s="25"/>
       <c r="C102" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B103" s="26"/>
+        <v>518</v>
+      </c>
+      <c r="B103" s="25"/>
       <c r="C103" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B104" s="26"/>
+        <v>519</v>
+      </c>
+      <c r="B104" s="25"/>
       <c r="C104" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B105" s="26"/>
+        <v>520</v>
+      </c>
+      <c r="B105" s="25"/>
       <c r="C105" s="10" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B106" s="26"/>
+        <v>521</v>
+      </c>
+      <c r="B106" s="25"/>
       <c r="C106" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B107" s="26"/>
+        <v>522</v>
+      </c>
+      <c r="B107" s="25"/>
       <c r="C107" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B108" s="26"/>
+        <v>467</v>
+      </c>
+      <c r="B108" s="25"/>
       <c r="C108" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="B109" s="26"/>
+        <v>523</v>
+      </c>
+      <c r="B109" s="25"/>
       <c r="C109" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B110" s="26"/>
+        <v>524</v>
+      </c>
+      <c r="B110" s="25"/>
       <c r="C110" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B111" s="26"/>
+        <v>525</v>
+      </c>
+      <c r="B111" s="25"/>
       <c r="C111" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B112" s="26"/>
+        <v>526</v>
+      </c>
+      <c r="B112" s="25"/>
       <c r="C112" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="B113" s="26"/>
+        <v>527</v>
+      </c>
+      <c r="B113" s="25"/>
       <c r="C113" s="10" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B114" s="26"/>
+        <v>468</v>
+      </c>
+      <c r="B114" s="25"/>
       <c r="C114" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B115" s="26"/>
+        <v>483</v>
+      </c>
+      <c r="B115" s="25"/>
       <c r="C115" s="10" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B116" s="26"/>
+        <v>482</v>
+      </c>
+      <c r="B116" s="25"/>
       <c r="C116" s="10" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B117" s="26"/>
+        <v>481</v>
+      </c>
+      <c r="B117" s="25"/>
       <c r="C117" s="10" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B118" s="26"/>
+        <v>469</v>
+      </c>
+      <c r="B118" s="25"/>
       <c r="C118" s="10" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B119" s="26"/>
+        <v>480</v>
+      </c>
+      <c r="B119" s="25"/>
       <c r="C119" s="10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B120" s="26"/>
+        <v>479</v>
+      </c>
+      <c r="B120" s="25"/>
       <c r="C120" s="10" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B121" s="26"/>
+        <v>478</v>
+      </c>
+      <c r="B121" s="25"/>
       <c r="C121" s="10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B122" s="26"/>
+        <v>477</v>
+      </c>
+      <c r="B122" s="25"/>
       <c r="C122" s="10" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B123" s="26"/>
+        <v>470</v>
+      </c>
+      <c r="B123" s="25"/>
       <c r="C123" s="10" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B124" s="26"/>
+        <v>476</v>
+      </c>
+      <c r="B124" s="25"/>
       <c r="C124" s="10" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B125" s="26"/>
+        <v>448</v>
+      </c>
+      <c r="B125" s="25"/>
       <c r="C125" s="10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B126" s="26"/>
+        <v>449</v>
+      </c>
+      <c r="B126" s="25"/>
       <c r="C126" s="10" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="B127" s="26"/>
+        <v>450</v>
+      </c>
+      <c r="B127" s="25"/>
       <c r="C127" s="10" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B128" s="26"/>
+        <v>475</v>
+      </c>
+      <c r="B128" s="25"/>
       <c r="C128" s="10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B129" s="26"/>
+        <v>474</v>
+      </c>
+      <c r="B129" s="25"/>
       <c r="C129" s="10" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B130" s="26"/>
+        <v>473</v>
+      </c>
+      <c r="B130" s="25"/>
       <c r="C130" s="10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B131" s="26"/>
+        <v>471</v>
+      </c>
+      <c r="B131" s="25"/>
       <c r="C131" s="10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B132" s="26"/>
+        <v>472</v>
+      </c>
+      <c r="B132" s="25"/>
       <c r="C132" s="10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -4793,18 +4724,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4830,25 +4761,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4863,10 +4794,10 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -4886,10 +4817,10 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -4907,7 +4838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4919,127 +4850,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>541</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>217</v>
+      <c r="A13" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -5059,16 +4990,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5076,16 +5007,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5102,17 +5033,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5136,23 +5067,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>256</v>
+      <c r="C1" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5160,19 +5091,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5186,13 +5117,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5220,16 +5151,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5238,13 +5169,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5252,13 +5183,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5266,13 +5197,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5280,13 +5211,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5315,13 +5246,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>176</v>
+      <c r="A1" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5330,22 +5261,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="A2" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5365,13 +5296,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>180</v>
+      <c r="A3" s="16" t="s">
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5393,7 +5324,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5415,7 +5346,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5437,7 +5368,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5459,30 +5390,30 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="17" t="s">
-        <v>214</v>
+      <c r="C7" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
-        <v>215</v>
+      <c r="C8" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5496,14 +5427,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>216</v>
+      <c r="C9" s="23" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5585,20 +5516,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>537</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>263</v>
+      <c r="C1" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5606,7 +5537,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5617,16 +5548,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5753,7 +5684,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>71</v>
@@ -5772,13 +5703,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -5795,13 +5726,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -5818,13 +5749,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D4">
         <v>20</v>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6C1A84-2CB2-694F-AA48-32ED063D0F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715C7A9-32F9-4B40-AE5E-13D91529A538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="563">
   <si>
     <t>Epoch</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>endpointDescription</t>
-  </si>
-  <si>
-    <t>endpointPurposeDescription</t>
   </si>
   <si>
     <t>endpointLevel</t>
@@ -1737,21 +1734,9 @@
     <t>Elderly population</t>
   </si>
   <si>
-    <t>objectiveName</t>
-  </si>
-  <si>
-    <t>endpointName</t>
-  </si>
-  <si>
     <t>objectiveLabel</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>TRT 1</t>
   </si>
   <si>
@@ -1768,6 +1753,21 @@
   </si>
   <si>
     <t>NEW-LABELS-1</t>
+  </si>
+  <si>
+    <t>objectiveXref</t>
+  </si>
+  <si>
+    <t>objectiveText</t>
+  </si>
+  <si>
+    <t>endpointLabel</t>
+  </si>
+  <si>
+    <t>endpointText</t>
+  </si>
+  <si>
+    <t>endpointPurpose</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1872,9 +1872,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1925,10 +1922,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2249,7 +2246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2265,11 +2262,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>562</v>
+      <c r="A1" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>557</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2277,7 +2274,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
@@ -2289,10 +2286,10 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E3"/>
@@ -2301,10 +2298,10 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
       <c r="E4"/>
@@ -2313,10 +2310,10 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>57</v>
       </c>
       <c r="E5"/>
@@ -2325,11 +2322,11 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>138</v>
+      <c r="A6" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2337,11 +2334,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>139</v>
+      <c r="A7" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2349,11 +2346,11 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>152</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2361,53 +2358,53 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>146</v>
+      <c r="A9" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="20" t="s">
-        <v>145</v>
+      <c r="H9" s="19" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>147</v>
+      <c r="A10" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>148</v>
+      <c r="A11" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>150</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2415,10 +2412,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E13"/>
@@ -2427,11 +2424,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>145</v>
+      <c r="A14" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2475,449 +2472,564 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="3" width="44" customWidth="1"/>
-    <col min="4" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="59.5" customWidth="1"/>
-    <col min="7" max="8" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="70.5" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>559</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="K3" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2946,100 +3058,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
         <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" t="s">
-        <v>559</v>
-      </c>
-      <c r="G2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
         <v>162</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
         <v>163</v>
       </c>
-      <c r="C5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>164</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>555</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
         <v>165</v>
-      </c>
-      <c r="F5" t="s">
-        <v>560</v>
-      </c>
-      <c r="G5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3068,65 +3180,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>179</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
         <v>181</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" t="s">
         <v>182</v>
-      </c>
-      <c r="C2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
         <v>184</v>
       </c>
-      <c r="B3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>186</v>
-      </c>
-      <c r="G3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3158,156 +3270,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>198</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3334,123 +3446,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>191</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3469,1238 +3581,1238 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>461</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B57" s="24"/>
+      <c r="C57" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B58" s="24"/>
+      <c r="C58" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="B60" s="24"/>
+      <c r="C60" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B61" s="24"/>
+      <c r="C61" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="B66" s="24"/>
+      <c r="C66" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B67" s="24"/>
+      <c r="C67" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B68" s="24"/>
+      <c r="C68" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B69" s="24"/>
+      <c r="C69" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B73" s="24"/>
+      <c r="C73" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B74" s="24"/>
+      <c r="C74" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B75" s="24"/>
+      <c r="C75" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B77" s="24"/>
+      <c r="C77" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="B78" s="24"/>
+      <c r="C78" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="B79" s="24"/>
+      <c r="C79" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="B80" s="24"/>
+      <c r="C80" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B81" s="24"/>
+      <c r="C81" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B82" s="24"/>
+      <c r="C82" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B83" s="24"/>
+      <c r="C83" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B85" s="24"/>
+      <c r="C85" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B86" s="24"/>
+      <c r="C86" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B88" s="24"/>
+      <c r="C88" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B89" s="24"/>
+      <c r="C89" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="B90" s="24"/>
+      <c r="C90" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
+      <c r="B91" s="24"/>
+      <c r="C91" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B92" s="24"/>
+      <c r="C92" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="10" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B75" s="25"/>
-      <c r="C75" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="B76" s="25"/>
-      <c r="C76" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="B77" s="25"/>
-      <c r="C77" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="10" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B86" s="25"/>
-      <c r="C86" s="10" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="11" t="s">
+      <c r="B93" s="24"/>
+      <c r="C93" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B94" s="24"/>
+      <c r="C94" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B95" s="24"/>
+      <c r="C95" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="11" t="s">
-        <v>511</v>
-      </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="11" t="s">
+      <c r="B96" s="24"/>
+      <c r="C96" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B97" s="24"/>
+      <c r="C97" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B98" s="24"/>
+      <c r="C98" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B99" s="24"/>
+      <c r="C99" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B100" s="24"/>
+      <c r="C100" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B102" s="24"/>
+      <c r="C102" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B103" s="24"/>
+      <c r="C103" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B104" s="24"/>
+      <c r="C104" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B105" s="24"/>
+      <c r="C105" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B106" s="24"/>
+      <c r="C106" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="B107" s="24"/>
+      <c r="C107" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="10" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="B96" s="25"/>
-      <c r="C96" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A97" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="11" t="s">
-        <v>445</v>
-      </c>
-      <c r="B98" s="25"/>
-      <c r="C98" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="11" t="s">
+      <c r="B108" s="24"/>
+      <c r="C108" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="B109" s="24"/>
+      <c r="C109" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="B110" s="24"/>
+      <c r="C110" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B111" s="24"/>
+      <c r="C111" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="B112" s="24"/>
+      <c r="C112" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B113" s="24"/>
+      <c r="C113" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B114" s="24"/>
+      <c r="C114" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="B115" s="24"/>
+      <c r="C115" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B116" s="24"/>
+      <c r="C116" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B117" s="24"/>
+      <c r="C117" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B118" s="24"/>
+      <c r="C118" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A119" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B119" s="24"/>
+      <c r="C119" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B120" s="24"/>
+      <c r="C120" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B121" s="24"/>
+      <c r="C121" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="B122" s="24"/>
+      <c r="C122" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="B123" s="24"/>
+      <c r="C123" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A124" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="B124" s="24"/>
+      <c r="C124" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B100" s="25"/>
-      <c r="C100" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="B101" s="25"/>
-      <c r="C101" s="10" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="B102" s="25"/>
-      <c r="C102" s="10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A103" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="B103" s="25"/>
-      <c r="C103" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A104" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="B104" s="25"/>
-      <c r="C104" s="10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="10" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="B106" s="25"/>
-      <c r="C106" s="10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B108" s="25"/>
-      <c r="C108" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A109" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="B110" s="25"/>
-      <c r="C110" s="10" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A112" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="B112" s="25"/>
-      <c r="C112" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A113" s="11" t="s">
+      <c r="B125" s="24"/>
+      <c r="C125" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B126" s="24"/>
+      <c r="C126" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B127" s="24"/>
+      <c r="C127" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="B128" s="24"/>
+      <c r="C128" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B129" s="24"/>
+      <c r="C129" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="B130" s="24"/>
+      <c r="C130" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B131" s="24"/>
+      <c r="C131" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="B132" s="24"/>
+      <c r="C132" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B113" s="25"/>
-      <c r="C113" s="10" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="B114" s="25"/>
-      <c r="C114" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="B116" s="25"/>
-      <c r="C116" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="B117" s="25"/>
-      <c r="C117" s="10" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="B118" s="25"/>
-      <c r="C118" s="10" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A119" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="B119" s="25"/>
-      <c r="C119" s="10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A120" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="10" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A121" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="B121" s="25"/>
-      <c r="C121" s="10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A122" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B122" s="25"/>
-      <c r="C122" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="10" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B124" s="25"/>
-      <c r="C124" s="10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B125" s="25"/>
-      <c r="C125" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B126" s="25"/>
-      <c r="C126" s="10" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B128" s="25"/>
-      <c r="C128" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A129" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="B129" s="25"/>
-      <c r="C129" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B130" s="25"/>
-      <c r="C130" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="B131" s="25"/>
-      <c r="C131" s="10" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="B132" s="25"/>
-      <c r="C132" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="11" t="s">
-        <v>528</v>
-      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="11" t="s">
-        <v>528</v>
+      <c r="A134" s="10" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="11" t="s">
-        <v>528</v>
+      <c r="A135" s="10" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="11" t="s">
-        <v>528</v>
+      <c r="A136" s="10" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="11" t="s">
-        <v>528</v>
+      <c r="A137" s="10" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="11" t="s">
-        <v>528</v>
+      <c r="A138" s="10" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -4724,18 +4836,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
         <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4761,25 +4873,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="20" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4794,10 +4906,10 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
@@ -4817,10 +4929,10 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -4850,127 +4962,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>537</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>213</v>
+      <c r="A13" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -4990,16 +5102,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="D14" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5007,16 +5119,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5033,17 +5145,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5067,23 +5179,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>251</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5091,19 +5203,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5117,17 +5229,17 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="11"/>
+      <c r="F4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5151,16 +5263,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5169,13 +5281,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5183,13 +5295,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5197,13 +5309,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5211,13 +5323,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -5246,13 +5358,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5261,22 +5373,22 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5296,13 +5408,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5322,9 +5434,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5344,9 +5456,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5366,9 +5478,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5388,32 +5500,32 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
-        <v>211</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5427,14 +5539,14 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>212</v>
+      <c r="C9" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5516,20 +5628,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>533</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>258</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5537,7 +5649,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5548,16 +5660,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5586,7 +5698,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>58</v>
@@ -5600,7 +5712,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -5614,7 +5726,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -5628,7 +5740,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -5642,7 +5754,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -5684,7 +5796,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>71</v>
@@ -5703,13 +5815,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -5726,13 +5838,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -5749,13 +5861,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D4">
         <v>20</v>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715C7A9-32F9-4B40-AE5E-13D91529A538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B27BF3-75CF-9043-93DD-DE8CA1375C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t>trialTypes</t>
   </si>
   <si>
-    <t>line|city|district|state|postal_code|GBR</t>
-  </si>
-  <si>
     <t>DUNS</t>
   </si>
   <si>
@@ -210,9 +207,6 @@
   </si>
   <si>
     <t>AP1234</t>
-  </si>
-  <si>
-    <t>Somewhere|In a City|In a District|In a big state|12345|FRA</t>
   </si>
   <si>
     <t>organisationAddress</t>
@@ -1768,6 +1762,12 @@
   </si>
   <si>
     <t>endpointPurpose</t>
+  </si>
+  <si>
+    <t>line|district|city|state|postal_code|GBR</t>
+  </si>
+  <si>
+    <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
 </sst>
 </file>
@@ -1922,10 +1922,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2263,10 +2263,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2299,10 +2299,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2314,7 +2314,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2335,10 +2335,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2359,52 +2359,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>29</v>
@@ -2425,10 +2425,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2474,7 +2474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -2494,85 +2494,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>558</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2581,16 +2581,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2599,16 +2599,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2617,16 +2617,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2635,16 +2635,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2653,16 +2653,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2671,16 +2671,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2689,16 +2689,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2707,16 +2707,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2725,16 +2725,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2743,16 +2743,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3059,99 +3059,99 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" t="s">
         <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
         <v>161</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>162</v>
       </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>553</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" t="s">
         <v>163</v>
-      </c>
-      <c r="E5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" t="s">
-        <v>555</v>
-      </c>
-      <c r="G5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3180,65 +3180,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
         <v>180</v>
-      </c>
-      <c r="B2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>184</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3271,155 +3271,155 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="F5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3447,122 +3447,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3589,16 +3589,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3607,1212 +3607,1212 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4836,18 +4836,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4859,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4880,19 +4880,19 @@
         <v>31</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>32</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4906,39 +4906,39 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -4963,10 +4963,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -4974,10 +4974,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -4985,10 +4985,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -4998,41 +4998,41 @@
       <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -5043,7 +5043,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -5054,7 +5054,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -5102,16 +5102,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5119,16 +5119,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5145,17 +5145,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5180,22 +5180,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5203,19 +5203,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5229,13 +5229,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5264,16 +5264,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5281,13 +5281,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5295,13 +5295,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5309,13 +5309,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5323,13 +5323,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5359,10 +5359,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5383,10 +5383,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5409,10 +5409,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5503,29 +5503,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5546,7 +5546,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5557,7 +5557,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -5629,19 +5629,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5649,7 +5649,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5660,16 +5660,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5698,72 +5698,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5790,96 +5790,96 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B27BF3-75CF-9043-93DD-DE8CA1375C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4EB78E-1236-134D-9B40-2D2E4C5C2D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,16 @@
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
     <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId15"/>
-    <sheet name="configuration" sheetId="10" r:id="rId16"/>
+    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
+    <sheet name="configuration" sheetId="10" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="600">
   <si>
     <t>Epoch</t>
   </si>
@@ -224,34 +225,16 @@
     <t>type</t>
   </si>
   <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>codes</t>
   </si>
   <si>
-    <t>An indication</t>
-  </si>
-  <si>
     <t>SNOMED:12345=Indication1</t>
   </si>
   <si>
-    <t>An intervention</t>
-  </si>
-  <si>
-    <t>ICD-10: X = Y, SNOMED: A=B</t>
-  </si>
-  <si>
     <t>SNOMED:345678=Indication2</t>
-  </si>
-  <si>
-    <t>ICD-10: DD=CC, SNOMED: A=B</t>
   </si>
   <si>
     <t>populationDescription</t>
@@ -1769,12 +1752,141 @@
   <si>
     <t>Somewhere|In a District|In a City|In a big state|12345|FRA</t>
   </si>
+  <si>
+    <t>Indication One</t>
+  </si>
+  <si>
+    <t>Indication 1</t>
+  </si>
+  <si>
+    <t>Indication Two</t>
+  </si>
+  <si>
+    <t>Indication 2</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>Int Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 1</t>
+  </si>
+  <si>
+    <t>SPONSOR: A=B</t>
+  </si>
+  <si>
+    <t>M11: role1=role1</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig1=desig_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>Admin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 1</t>
+  </si>
+  <si>
+    <t>DENTAL</t>
+  </si>
+  <si>
+    <t>12 mg</t>
+  </si>
+  <si>
+    <t>10 DAYS PER MONTH</t>
+  </si>
+  <si>
+    <t>Dur desc 1</t>
+  </si>
+  <si>
+    <t>Will vary becuase we say so</t>
+  </si>
+  <si>
+    <t>14 %</t>
+  </si>
+  <si>
+    <t>Int Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Int Label 2</t>
+  </si>
+  <si>
+    <t>M11: role2=role2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M11: desig2=desig_2</t>
+  </si>
+  <si>
+    <t>Admin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Desc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Admin Label 2</t>
+  </si>
+  <si>
+    <t>Dur desc 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1818,6 +1930,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1851,7 +1969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1922,14 +2040,16 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2263,10 +2383,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2299,7 +2419,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>54</v>
@@ -2323,10 +2443,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2335,10 +2455,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2347,10 +2467,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2359,52 +2479,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>144</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>145</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2413,7 +2533,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>29</v>
@@ -2425,10 +2545,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2471,6 +2591,122 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2494,85 +2730,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2581,16 +2817,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2599,16 +2835,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2617,16 +2853,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2635,16 +2871,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2653,16 +2889,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2671,16 +2907,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2689,16 +2925,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2707,16 +2943,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2725,16 +2961,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2743,16 +2979,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3037,7 +3273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -3059,99 +3295,99 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
         <v>106</v>
       </c>
-      <c r="H2" t="s">
-        <v>112</v>
-      </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3180,65 +3416,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3251,7 +3487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3271,155 +3507,155 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3429,7 +3665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3447,122 +3683,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3571,7 +3807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3589,16 +3825,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3607,1212 +3843,1212 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4821,7 +5057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -4836,18 +5072,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4859,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
@@ -4880,10 +5116,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>56</v>
@@ -4906,16 +5142,16 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4929,16 +5165,16 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -4963,10 +5199,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
@@ -4974,10 +5210,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -4985,10 +5221,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -4998,41 +5234,41 @@
       <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -5043,7 +5279,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -5054,7 +5290,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -5062,10 +5298,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -5073,7 +5309,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -5082,7 +5318,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -5102,16 +5338,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5119,16 +5355,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5145,17 +5381,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5180,22 +5416,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5203,19 +5439,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5229,13 +5465,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5264,13 +5500,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>56</v>
@@ -5281,13 +5517,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5295,13 +5531,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5309,13 +5545,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5323,13 +5559,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5359,10 +5595,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5383,10 +5619,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5409,10 +5645,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5503,29 +5739,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5546,7 +5782,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5629,19 +5865,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5649,7 +5885,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5660,16 +5896,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5683,87 +5919,212 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9700CE60-2D75-C740-95B2-953D04646640}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G1" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>567</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q1" s="22" t="s">
+        <v>572</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+      <c r="D2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="G2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H2" t="s">
+        <v>581</v>
+      </c>
+      <c r="I2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J2" t="s">
+        <v>583</v>
+      </c>
+      <c r="K2" t="s">
+        <v>584</v>
+      </c>
+      <c r="L2" t="s">
+        <v>585</v>
+      </c>
+      <c r="M2" t="s">
+        <v>586</v>
+      </c>
+      <c r="N2" t="s">
+        <v>587</v>
+      </c>
+      <c r="O2" t="s">
+        <v>588</v>
+      </c>
+      <c r="P2" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" t="s">
+        <v>590</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>592</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>593</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
+        <v>577</v>
+      </c>
+      <c r="E3" t="s">
+        <v>594</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="G3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H3" t="s">
+        <v>595</v>
+      </c>
+      <c r="I3" t="s">
+        <v>582</v>
+      </c>
+      <c r="J3" t="s">
+        <v>596</v>
+      </c>
+      <c r="K3" t="s">
+        <v>597</v>
+      </c>
+      <c r="L3" t="s">
+        <v>598</v>
+      </c>
+      <c r="M3" t="s">
+        <v>586</v>
+      </c>
+      <c r="N3" t="s">
+        <v>587</v>
+      </c>
+      <c r="O3" t="s">
+        <v>588</v>
+      </c>
+      <c r="P3" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>177</v>
+      </c>
+      <c r="R3" t="s">
+        <v>590</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -5772,114 +6133,60 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>545</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>548</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
+        <v>560</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4EB78E-1236-134D-9B40-2D2E4C5C2D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EE479E-6382-D04B-A9B3-75F7011F4A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="596">
   <si>
     <t>Epoch</t>
   </si>
@@ -240,46 +240,16 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>Pop 1</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
     <t>18 years</t>
   </si>
   <si>
-    <t>40 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
   </si>
   <si>
-    <t>Pop 2</t>
-  </si>
-  <si>
-    <t>60 years</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Pop 3</t>
-  </si>
-  <si>
     <t>70 years</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1693,24 +1663,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>POP 1</t>
-  </si>
-  <si>
-    <t>POP 2</t>
-  </si>
-  <si>
-    <t>POP 3</t>
-  </si>
-  <si>
-    <t>Young populaton</t>
-  </si>
-  <si>
-    <t>Middle population</t>
-  </si>
-  <si>
-    <t>Elderly population</t>
-  </si>
-  <si>
     <t>objectiveLabel</t>
   </si>
   <si>
@@ -1880,6 +1832,42 @@
   </si>
   <si>
     <t>Dur desc 2</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>POP1</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>COHORT1</t>
+  </si>
+  <si>
+    <t>30 years</t>
+  </si>
+  <si>
+    <t>COHORT2</t>
+  </si>
+  <si>
+    <t>31 years</t>
   </si>
 </sst>
 </file>
@@ -2036,20 +2024,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2383,10 +2371,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2419,7 +2407,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>54</v>
@@ -2443,10 +2431,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2455,10 +2443,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2467,10 +2455,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2479,52 +2467,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2533,7 +2521,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>29</v>
@@ -2545,10 +2533,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2594,111 +2582,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D2">
+        <v>590</v>
+      </c>
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>538</v>
+        <v>591</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>70</v>
+        <v>592</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>539</v>
+        <v>591</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G4" t="s">
+        <v>595</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2730,85 +2701,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2817,16 +2788,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2835,16 +2806,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2853,16 +2824,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2871,16 +2842,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2889,16 +2860,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2907,16 +2878,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2925,16 +2896,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2943,16 +2914,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2961,16 +2932,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2979,16 +2950,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3295,99 +3266,99 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="G2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3416,65 +3387,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3507,155 +3478,155 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3683,122 +3654,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3825,16 +3796,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3843,1212 +3814,1212 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -5072,18 +5043,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5116,10 +5087,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>56</v>
@@ -5142,16 +5113,16 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5165,16 +5136,16 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -5199,126 +5170,126 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+        <v>442</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+        <v>514</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+        <v>151</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+        <v>152</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -5338,16 +5309,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5355,16 +5326,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5381,17 +5352,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5416,22 +5387,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5439,19 +5410,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5465,13 +5436,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5500,13 +5471,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>56</v>
@@ -5517,13 +5488,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5531,13 +5502,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5545,13 +5516,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5559,13 +5530,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5595,10 +5566,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5609,20 +5580,20 @@
       <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="31"/>
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5645,10 +5616,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5739,29 +5710,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5782,7 +5753,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5865,19 +5836,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5885,7 +5856,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5896,16 +5867,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5922,7 +5893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9700CE60-2D75-C740-95B2-953D04646640}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -5952,179 +5923,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>58</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="G2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H2" t="s">
+        <v>565</v>
+      </c>
+      <c r="I2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J2" t="s">
+        <v>567</v>
+      </c>
+      <c r="K2" t="s">
+        <v>568</v>
+      </c>
+      <c r="L2" t="s">
+        <v>569</v>
+      </c>
+      <c r="M2" t="s">
+        <v>570</v>
+      </c>
+      <c r="N2" t="s">
+        <v>571</v>
+      </c>
+      <c r="O2" t="s">
+        <v>572</v>
+      </c>
+      <c r="P2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>167</v>
+      </c>
+      <c r="R2" t="s">
+        <v>574</v>
+      </c>
+      <c r="S2" s="27" t="s">
         <v>575</v>
-      </c>
-      <c r="C2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E2" t="s">
-        <v>578</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="G2" t="s">
-        <v>580</v>
-      </c>
-      <c r="H2" t="s">
-        <v>581</v>
-      </c>
-      <c r="I2" t="s">
-        <v>582</v>
-      </c>
-      <c r="J2" t="s">
-        <v>583</v>
-      </c>
-      <c r="K2" t="s">
-        <v>584</v>
-      </c>
-      <c r="L2" t="s">
-        <v>585</v>
-      </c>
-      <c r="M2" t="s">
-        <v>586</v>
-      </c>
-      <c r="N2" t="s">
-        <v>587</v>
-      </c>
-      <c r="O2" t="s">
-        <v>588</v>
-      </c>
-      <c r="P2" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>177</v>
-      </c>
-      <c r="R2" t="s">
-        <v>590</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="C3" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="D3" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="E3" t="s">
-        <v>594</v>
-      </c>
-      <c r="F3" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="G3" t="s">
+        <v>564</v>
+      </c>
+      <c r="H3" t="s">
         <v>579</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>566</v>
+      </c>
+      <c r="J3" t="s">
         <v>580</v>
       </c>
-      <c r="H3" t="s">
-        <v>595</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>581</v>
+      </c>
+      <c r="L3" t="s">
         <v>582</v>
       </c>
-      <c r="J3" t="s">
-        <v>596</v>
-      </c>
-      <c r="K3" t="s">
-        <v>597</v>
-      </c>
-      <c r="L3" t="s">
-        <v>598</v>
-      </c>
       <c r="M3" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="N3" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="O3" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="P3" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="Q3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="R3" t="s">
-        <v>590</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>591</v>
+        <v>574</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -6149,13 +6120,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>58</v>
@@ -6163,13 +6134,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C2" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>59</v>
@@ -6177,13 +6148,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C3" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>60</v>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EE479E-6382-D04B-A9B3-75F7011F4A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776B7CFC-C4E0-854C-89B0-BA0868C2B6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="593">
   <si>
     <t>Epoch</t>
   </si>
@@ -240,16 +240,10 @@
     <t>populationDescription</t>
   </si>
   <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>plannedSexOfParticipants</t>
   </si>
   <si>
     <t>BOTH</t>
-  </si>
-  <si>
-    <t>70 years</t>
   </si>
   <si>
     <t>objectiveDescription</t>
@@ -1843,12 +1837,6 @@
     <t>plannedEnrollmentNumber</t>
   </si>
   <si>
-    <t>plannedMinimumAge</t>
-  </si>
-  <si>
-    <t>plannedMaximumAge</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
@@ -1861,13 +1849,16 @@
     <t>COHORT1</t>
   </si>
   <si>
-    <t>30 years</t>
-  </si>
-  <si>
     <t>COHORT2</t>
   </si>
   <si>
-    <t>31 years</t>
+    <t>plannedAge</t>
+  </si>
+  <si>
+    <t>18 .. 30 years</t>
+  </si>
+  <si>
+    <t>31 .. 70 years</t>
   </si>
 </sst>
 </file>
@@ -2030,10 +2021,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2371,10 +2362,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2407,7 +2398,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>54</v>
@@ -2431,10 +2422,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2443,10 +2434,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2455,10 +2446,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2467,52 +2458,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2521,7 +2512,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>29</v>
@@ -2533,10 +2524,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2580,10 +2571,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2593,45 +2584,42 @@
     <col min="4" max="4" width="8.5" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="8" width="19.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>583</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>585</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="B2" t="s">
         <v>586</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>587</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>588</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>589</v>
-      </c>
-      <c r="B2" t="s">
-        <v>590</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2639,37 +2627,30 @@
       <c r="F2">
         <v>120</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G3" t="s">
         <v>591</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>587</v>
+      </c>
+      <c r="B4" t="s">
+        <v>589</v>
+      </c>
+      <c r="G4" t="s">
         <v>592</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>594</v>
-      </c>
-      <c r="G4" t="s">
-        <v>595</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2701,85 +2682,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2788,16 +2769,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2806,16 +2787,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2824,16 +2805,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2842,16 +2823,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2860,16 +2841,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2878,16 +2859,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2896,16 +2877,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2914,16 +2895,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2932,16 +2913,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2950,16 +2931,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3266,99 +3247,99 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" t="s">
+        <v>528</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
         <v>143</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>144</v>
       </c>
-      <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" t="s">
         <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3387,65 +3368,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
         <v>162</v>
-      </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>166</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3478,155 +3459,155 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="F5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3654,122 +3635,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>205</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>201</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3796,16 +3777,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3814,1212 +3795,1212 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -5043,18 +5024,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
         <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5087,10 +5068,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>56</v>
@@ -5113,16 +5094,16 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
         <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5136,16 +5117,16 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -5170,10 +5151,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -5184,7 +5165,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -5192,10 +5173,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -5205,41 +5186,41 @@
       <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -5250,7 +5231,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -5261,7 +5242,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -5269,10 +5250,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -5280,7 +5261,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -5289,7 +5270,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>40</v>
@@ -5309,16 +5290,16 @@
         <v>38</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5326,16 +5307,16 @@
         <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5352,17 +5333,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5387,22 +5368,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5410,19 +5391,19 @@
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5436,13 +5417,13 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5471,13 +5452,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>56</v>
@@ -5488,13 +5469,13 @@
         <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5502,13 +5483,13 @@
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5516,13 +5497,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5530,13 +5511,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -5566,10 +5547,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>0</v>
@@ -5590,10 +5571,10 @@
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>3</v>
@@ -5616,10 +5597,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>21</v>
@@ -5710,29 +5691,29 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -5753,7 +5734,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5836,19 +5817,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5856,7 +5837,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
@@ -5867,16 +5848,16 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5923,179 +5904,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>58</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>548</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>549</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>550</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>551</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>553</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>554</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>555</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>556</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" t="s">
         <v>559</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>560</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>562</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" t="s">
         <v>563</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>564</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>565</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>566</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>567</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>568</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>569</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>570</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>571</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>165</v>
+      </c>
+      <c r="R2" t="s">
         <v>572</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="27" t="s">
         <v>573</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>167</v>
-      </c>
-      <c r="R2" t="s">
-        <v>574</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E3" t="s">
         <v>576</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3" t="s">
+        <v>562</v>
+      </c>
+      <c r="H3" t="s">
         <v>577</v>
       </c>
-      <c r="D3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
+        <v>564</v>
+      </c>
+      <c r="J3" t="s">
         <v>578</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>563</v>
-      </c>
-      <c r="G3" t="s">
-        <v>564</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>579</v>
       </c>
-      <c r="I3" t="s">
-        <v>566</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>580</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>568</v>
+      </c>
+      <c r="N3" t="s">
+        <v>569</v>
+      </c>
+      <c r="O3" t="s">
+        <v>570</v>
+      </c>
+      <c r="P3" t="s">
         <v>581</v>
       </c>
-      <c r="L3" t="s">
-        <v>582</v>
-      </c>
-      <c r="M3" t="s">
-        <v>570</v>
-      </c>
-      <c r="N3" t="s">
-        <v>571</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>165</v>
+      </c>
+      <c r="R3" t="s">
         <v>572</v>
       </c>
-      <c r="P3" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>167</v>
-      </c>
-      <c r="R3" t="s">
-        <v>574</v>
-      </c>
       <c r="S3" s="27" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -6120,13 +6101,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>58</v>
@@ -6134,13 +6115,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>59</v>
@@ -6148,13 +6129,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>60</v>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776B7CFC-C4E0-854C-89B0-BA0868C2B6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AB472E-4ADC-5541-868F-D3BBEEE3294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32260" yWindow="1560" windowWidth="33600" windowHeight="19480" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38480" yWindow="3000" windowWidth="33600" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="studyDesignArms" sheetId="15" r:id="rId4"/>
     <sheet name="studyDesignEpochs" sheetId="14" r:id="rId5"/>
     <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignActivities" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId8"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId11"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
-    <sheet name="studyDesignContent" sheetId="17" r:id="rId16"/>
-    <sheet name="configuration" sheetId="10" r:id="rId17"/>
+    <sheet name="studyDesignTiming" sheetId="19" r:id="rId7"/>
+    <sheet name="studyDesignActivities" sheetId="16" r:id="rId8"/>
+    <sheet name="studyDesignInterventions" sheetId="18" r:id="rId9"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId12"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId13"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId14"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId15"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId16"/>
+    <sheet name="studyDesignContent" sheetId="17" r:id="rId17"/>
+    <sheet name="configuration" sheetId="10" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,10 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="593">
-  <si>
-    <t>Epoch</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="617">
   <si>
     <t>Screening</t>
   </si>
@@ -63,15 +61,6 @@
     <t>Treatment</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Cycle End Rule</t>
-  </si>
-  <si>
-    <t>A:</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -81,9 +70,6 @@
     <t>Child Activity</t>
   </si>
   <si>
-    <t>N: 0..2 Days</t>
-  </si>
-  <si>
     <t>Demographics</t>
   </si>
   <si>
@@ -96,36 +82,12 @@
     <t>15 min</t>
   </si>
   <si>
-    <t>P: +24 Hours</t>
-  </si>
-  <si>
-    <t>0..4 Hours</t>
-  </si>
-  <si>
-    <t>N: Pre Dose</t>
-  </si>
-  <si>
     <t>Day 24</t>
   </si>
   <si>
     <t>Day 35</t>
   </si>
   <si>
-    <t>P: +7 Days</t>
-  </si>
-  <si>
-    <t>-3..3 Days</t>
-  </si>
-  <si>
-    <t>First Cycle Start</t>
-  </si>
-  <si>
-    <t>Cycle Period</t>
-  </si>
-  <si>
-    <t>Timing</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -619,12 +581,6 @@
   </si>
   <si>
     <t>E5</t>
-  </si>
-  <si>
-    <t>Encounter xref</t>
-  </si>
-  <si>
-    <t>Window</t>
   </si>
   <si>
     <t>BC/Procedure/Timeline</t>
@@ -1859,6 +1815,123 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>PRE DOSE</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>Pre Dose</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>Day 14</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>(EXIT)</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>timingValue</t>
+  </si>
+  <si>
+    <t>toFrom</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TIM1</t>
+  </si>
+  <si>
+    <t>Screening timing</t>
+  </si>
+  <si>
+    <t>BEFORE</t>
+  </si>
+  <si>
+    <t>2 days</t>
+  </si>
+  <si>
+    <t>S2S</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>Pre dose timing</t>
+  </si>
+  <si>
+    <t>Pre dose</t>
+  </si>
+  <si>
+    <t>0..4 hours</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>Dosing anchor</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>1 Day</t>
+  </si>
+  <si>
+    <t>TIM4</t>
+  </si>
+  <si>
+    <t>24 Hour timing</t>
+  </si>
+  <si>
+    <t>AFTER</t>
+  </si>
+  <si>
+    <t>24 Hours</t>
+  </si>
+  <si>
+    <t>TIM5</t>
+  </si>
+  <si>
+    <t>Follow up timing</t>
+  </si>
+  <si>
+    <t>7 Days</t>
+  </si>
+  <si>
+    <t>-3..3 days</t>
   </si>
 </sst>
 </file>
@@ -1948,7 +2021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2021,13 +2094,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2047,9 +2117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2087,7 +2157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2193,7 +2263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2335,7 +2405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2362,10 +2432,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2374,10 +2444,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -2386,10 +2456,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -2398,10 +2468,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -2410,10 +2480,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -2422,10 +2492,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2434,10 +2504,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2446,10 +2516,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2458,52 +2528,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2512,10 +2582,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -2524,10 +2594,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2570,10 +2640,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C037A932-CB5B-8D43-956E-5F5C367E07FC}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -2590,36 +2722,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2628,29 +2760,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B3" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="G3" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B4" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="G4" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
@@ -2682,85 +2814,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2769,16 +2901,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2787,16 +2919,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2805,16 +2937,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2823,16 +2955,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2841,16 +2973,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2859,16 +2991,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2877,16 +3009,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -2895,16 +3027,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2913,16 +3045,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2931,16 +3063,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3225,7 +3357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -3247,99 +3379,99 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3347,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608A778-255D-4443-A7EA-03049F1FC98F}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3368,65 +3500,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3439,7 +3571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500D92E-6FB0-8D4D-97D2-7C2457E4D88B}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -3459,155 +3591,155 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3617,7 +3749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137D84F3-D0D8-A149-BA12-7DBD407EC782}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -3635,122 +3767,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3759,7 +3891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F40359-1191-3843-B5C3-38D19A754655}">
   <dimension ref="A1:D138"/>
   <sheetViews>
@@ -3777,1230 +3909,1230 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5009,7 +5141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -5024,18 +5156,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5062,71 +5194,71 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -5151,10 +5283,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -5162,10 +5294,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -5173,10 +5305,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -5184,43 +5316,43 @@
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -5228,10 +5360,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -5239,10 +5371,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -5250,10 +5382,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -5261,7 +5393,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -5270,53 +5402,53 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5333,17 +5465,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5368,62 +5500,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5452,72 +5584,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5533,13 +5665,13 @@
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B11"/>
+      <selection pane="bottomRight" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
@@ -5547,258 +5679,435 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>425</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
+        <v>581</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>582</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>583</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>21</v>
+        <v>497</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>584</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>583</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="15"/>
       <c r="C4" s="15" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>585</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>585</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>585</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>585</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>4</v>
+        <v>586</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>578</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>579</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>580</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>505</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>587</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>189</v>
+        <v>589</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26D55E-FE2C-024D-A5CF-FC14AFFEB7C9}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="E2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G2" t="s">
+        <v>599</v>
+      </c>
+      <c r="H2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F3" t="s">
+        <v>579</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>600</v>
+      </c>
+      <c r="I3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F4" t="s">
+        <v>579</v>
+      </c>
+      <c r="G4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B5" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G5" t="s">
+        <v>612</v>
+      </c>
+      <c r="H5" t="s">
+        <v>600</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E6" t="s">
+        <v>505</v>
+      </c>
+      <c r="F6" t="s">
+        <v>579</v>
+      </c>
+      <c r="G6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H6" t="s">
+        <v>600</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8389B3-D1BB-1047-BA06-7E793B938DBA}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -5817,47 +6126,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5870,7 +6179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9700CE60-2D75-C740-95B2-953D04646640}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -5904,241 +6213,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="L1" s="22" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="M1" s="22" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="R1" s="22" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H2" t="s">
+        <v>548</v>
+      </c>
+      <c r="I2" t="s">
+        <v>549</v>
+      </c>
+      <c r="J2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K2" t="s">
+        <v>551</v>
+      </c>
+      <c r="L2" t="s">
+        <v>552</v>
+      </c>
+      <c r="M2" t="s">
+        <v>553</v>
+      </c>
+      <c r="N2" t="s">
+        <v>554</v>
+      </c>
+      <c r="O2" t="s">
+        <v>555</v>
+      </c>
+      <c r="P2" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" t="s">
         <v>557</v>
       </c>
-      <c r="C2" t="s">
+      <c r="S2" s="27" t="s">
         <v>558</v>
-      </c>
-      <c r="D2" t="s">
-        <v>559</v>
-      </c>
-      <c r="E2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="G2" t="s">
-        <v>562</v>
-      </c>
-      <c r="H2" t="s">
-        <v>563</v>
-      </c>
-      <c r="I2" t="s">
-        <v>564</v>
-      </c>
-      <c r="J2" t="s">
-        <v>565</v>
-      </c>
-      <c r="K2" t="s">
-        <v>566</v>
-      </c>
-      <c r="L2" t="s">
-        <v>567</v>
-      </c>
-      <c r="M2" t="s">
-        <v>568</v>
-      </c>
-      <c r="N2" t="s">
-        <v>569</v>
-      </c>
-      <c r="O2" t="s">
-        <v>570</v>
-      </c>
-      <c r="P2" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>165</v>
-      </c>
-      <c r="R2" t="s">
-        <v>572</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="D3" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="E3" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="G3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H3" t="s">
         <v>562</v>
       </c>
-      <c r="H3" t="s">
-        <v>577</v>
-      </c>
       <c r="I3" t="s">
+        <v>549</v>
+      </c>
+      <c r="J3" t="s">
+        <v>563</v>
+      </c>
+      <c r="K3" t="s">
         <v>564</v>
       </c>
-      <c r="J3" t="s">
-        <v>578</v>
-      </c>
-      <c r="K3" t="s">
-        <v>579</v>
-      </c>
       <c r="L3" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="M3" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="N3" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="O3" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="P3" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="Q3" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="R3" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>573</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E548DFC1-EB0E-374B-95D2-A04104B745FB}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" t="s">
-        <v>541</v>
-      </c>
-      <c r="C3" t="s">
-        <v>542</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>60</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AB472E-4ADC-5541-868F-D3BBEEE3294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3FBB86-6148-EC47-AF2E-76D57E5A484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38480" yWindow="3000" windowWidth="33600" windowHeight="19480" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38480" yWindow="3000" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="616">
   <si>
     <t>Screening</t>
   </si>
@@ -1718,18 +1718,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -1766,12 +1760,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -1932,6 +1920,15 @@
   </si>
   <si>
     <t>-3..3 days</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -2094,10 +2091,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2117,9 +2114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2157,7 +2154,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2263,7 +2260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2405,7 +2402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2722,7 +2719,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>425</v>
@@ -2734,13 +2731,13 @@
         <v>497</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>49</v>
@@ -2748,10 +2745,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2765,24 +2762,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>568</v>
+      </c>
+      <c r="B3" t="s">
+        <v>569</v>
+      </c>
+      <c r="G3" t="s">
         <v>572</v>
-      </c>
-      <c r="B3" t="s">
-        <v>573</v>
-      </c>
-      <c r="G3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -5318,34 +5315,34 @@
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
@@ -5465,17 +5462,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5691,13 +5688,13 @@
         <v>508</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>505</v>
@@ -5717,13 +5714,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>184</v>
@@ -5740,7 +5737,7 @@
         <v>497</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5749,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>184</v>
@@ -5761,46 +5758,46 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>505</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5812,7 +5809,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5834,7 +5831,7 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>171</v>
@@ -5925,7 +5922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE26D55E-FE2C-024D-A5CF-FC14AFFEB7C9}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -5951,123 +5948,123 @@
         <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>591</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E2" t="s">
         <v>508</v>
       </c>
       <c r="F2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="H2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="F3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>596</v>
+      </c>
+      <c r="I3" t="s">
         <v>600</v>
-      </c>
-      <c r="I3" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C4" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F4" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6075,31 +6072,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B6" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C6" t="s">
         <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E6" t="s">
         <v>505</v>
       </c>
       <c r="F6" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H6" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -6183,8 +6180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9700CE60-2D75-C740-95B2-953D04646640}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6284,49 +6281,49 @@
         <v>544</v>
       </c>
       <c r="E2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" t="s">
         <v>546</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>614</v>
+      </c>
+      <c r="I2" t="s">
         <v>547</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>548</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>549</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>550</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>551</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>552</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>553</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>554</v>
-      </c>
-      <c r="O2" t="s">
-        <v>555</v>
-      </c>
-      <c r="P2" t="s">
-        <v>556</v>
       </c>
       <c r="Q2" t="s">
         <v>152</v>
       </c>
       <c r="R2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -6334,58 +6331,58 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D3" t="s">
         <v>544</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="G3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H3" t="s">
+        <v>615</v>
+      </c>
+      <c r="I3" t="s">
+        <v>547</v>
+      </c>
+      <c r="J3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K3" t="s">
+        <v>560</v>
+      </c>
+      <c r="L3" t="s">
         <v>561</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="G3" t="s">
-        <v>547</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>551</v>
+      </c>
+      <c r="N3" t="s">
+        <v>552</v>
+      </c>
+      <c r="O3" t="s">
+        <v>553</v>
+      </c>
+      <c r="P3" t="s">
         <v>562</v>
-      </c>
-      <c r="I3" t="s">
-        <v>549</v>
-      </c>
-      <c r="J3" t="s">
-        <v>563</v>
-      </c>
-      <c r="K3" t="s">
-        <v>564</v>
-      </c>
-      <c r="L3" t="s">
-        <v>565</v>
-      </c>
-      <c r="M3" t="s">
-        <v>553</v>
-      </c>
-      <c r="N3" t="s">
-        <v>554</v>
-      </c>
-      <c r="O3" t="s">
-        <v>555</v>
-      </c>
-      <c r="P3" t="s">
-        <v>566</v>
       </c>
       <c r="Q3" t="s">
         <v>152</v>
       </c>
       <c r="R3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3FBB86-6148-EC47-AF2E-76D57E5A484E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7FFC32-F0E7-D648-BC96-7637C888077C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38480" yWindow="3000" windowWidth="33600" windowHeight="19480" activeTab="8" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38480" yWindow="3000" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -223,9 +223,6 @@
     <t>The primary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Clinical status assessed using a 7-category ordinal scale at Day 28</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
   </si>
   <si>
     <t>The secondary efficacy objective for this study is to evaluate the efficacy of TCZ compared with placebo in combination with SOC for the treatment of severe COVID-19 pneumonia</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Time to clinical improvement (TTCI) defined as a National Early Warning Score 2 (NEWS2) of &lt;=2 maintained for 24 hours</t>
@@ -1929,6 +1923,12 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
   </si>
 </sst>
 </file>
@@ -2091,10 +2091,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2114,9 +2114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2154,7 +2154,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2260,7 +2260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2402,7 +2402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2429,10 +2429,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>41</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -2501,10 +2501,10 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -2513,10 +2513,10 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2525,52 +2525,52 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>16</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -2653,13 +2653,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>45</v>
@@ -2667,13 +2667,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>46</v>
@@ -2681,13 +2681,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>47</v>
@@ -2719,25 +2719,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>49</v>
@@ -2745,10 +2745,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2762,24 +2762,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B4" t="s">
         <v>568</v>
       </c>
-      <c r="B4" t="s">
-        <v>570</v>
-      </c>
       <c r="G4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -2791,8 +2791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2811,34 +2811,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>53</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>519</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>521</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>54</v>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -2854,42 +2854,42 @@
         <v>55</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>56</v>
+        <v>614</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>60</v>
+        <v>615</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -2898,16 +2898,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2916,16 +2916,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2934,16 +2934,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2952,16 +2952,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -2970,16 +2970,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2988,16 +2988,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3006,16 +3006,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3024,16 +3024,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3042,16 +3042,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3060,16 +3060,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3376,99 +3376,99 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>511</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
         <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
         <v>128</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>129</v>
       </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
         <v>130</v>
-      </c>
-      <c r="E5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" t="s">
-        <v>514</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3497,65 +3497,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>151</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3588,155 +3588,155 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="F5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3764,122 +3764,122 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3906,16 +3906,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -3924,1212 +3924,1212 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B90" s="24"/>
       <c r="C90" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B91" s="24"/>
       <c r="C91" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B92" s="24"/>
       <c r="C92" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B94" s="24"/>
       <c r="C94" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B95" s="24"/>
       <c r="C95" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B96" s="24"/>
       <c r="C96" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B97" s="24"/>
       <c r="C97" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B98" s="24"/>
       <c r="C98" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B99" s="24"/>
       <c r="C99" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B100" s="24"/>
       <c r="C100" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B101" s="24"/>
       <c r="C101" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B102" s="24"/>
       <c r="C102" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B103" s="24"/>
       <c r="C103" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B104" s="24"/>
       <c r="C104" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B105" s="24"/>
       <c r="C105" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B106" s="24"/>
       <c r="C106" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B107" s="24"/>
       <c r="C107" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B108" s="24"/>
       <c r="C108" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B109" s="24"/>
       <c r="C109" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B110" s="24"/>
       <c r="C110" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B111" s="24"/>
       <c r="C111" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B112" s="24"/>
       <c r="C112" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B113" s="24"/>
       <c r="C113" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B114" s="24"/>
       <c r="C114" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B115" s="24"/>
       <c r="C115" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B116" s="24"/>
       <c r="C116" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B117" s="24"/>
       <c r="C117" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B118" s="24"/>
       <c r="C118" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B119" s="24"/>
       <c r="C119" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B120" s="24"/>
       <c r="C120" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B121" s="24"/>
       <c r="C121" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B122" s="24"/>
       <c r="C122" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B123" s="24"/>
       <c r="C123" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B124" s="24"/>
       <c r="C124" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B125" s="24"/>
       <c r="C125" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B126" s="24"/>
       <c r="C126" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B127" s="24"/>
       <c r="C127" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B128" s="24"/>
       <c r="C128" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B129" s="24"/>
       <c r="C129" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B130" s="24"/>
       <c r="C130" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B131" s="24"/>
       <c r="C131" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B132" s="24"/>
       <c r="C132" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5153,18 +5153,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
         <v>123</v>
-      </c>
-      <c r="B1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5197,10 +5197,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>43</v>
@@ -5223,16 +5223,16 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5246,16 +5246,16 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -5280,10 +5280,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -5294,7 +5294,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -5302,10 +5302,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -5315,41 +5315,41 @@
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -5360,7 +5360,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -5371,7 +5371,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>27</v>
@@ -5419,16 +5419,16 @@
         <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5436,16 +5436,16 @@
         <v>26</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5462,17 +5462,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5497,22 +5497,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>214</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5520,19 +5520,19 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5546,13 +5546,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5581,13 +5581,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>43</v>
@@ -5598,13 +5598,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5612,13 +5612,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5626,13 +5626,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5640,13 +5640,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5676,36 +5676,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>44</v>
@@ -5714,30 +5714,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -5746,10 +5746,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5758,46 +5758,46 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="C5" s="15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="C6" s="15" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -5809,7 +5809,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="15" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -5831,22 +5831,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="15" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5857,7 +5857,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5936,135 +5936,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>589</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="E2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G2" t="s">
+        <v>593</v>
+      </c>
+      <c r="H2" t="s">
         <v>594</v>
-      </c>
-      <c r="E2" t="s">
-        <v>508</v>
-      </c>
-      <c r="F2" t="s">
-        <v>574</v>
-      </c>
-      <c r="G2" t="s">
-        <v>595</v>
-      </c>
-      <c r="H2" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C3" t="s">
         <v>597</v>
       </c>
-      <c r="B3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C3" t="s">
-        <v>599</v>
-      </c>
       <c r="D3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>599</v>
+      </c>
+      <c r="B4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4" t="s">
         <v>601</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F4" t="s">
+        <v>573</v>
+      </c>
+      <c r="G4" t="s">
         <v>602</v>
-      </c>
-      <c r="C4" t="s">
-        <v>578</v>
-      </c>
-      <c r="D4" t="s">
-        <v>603</v>
-      </c>
-      <c r="E4" t="s">
-        <v>575</v>
-      </c>
-      <c r="F4" t="s">
-        <v>575</v>
-      </c>
-      <c r="G4" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D5" t="s">
         <v>605</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" t="s">
+        <v>573</v>
+      </c>
+      <c r="G5" t="s">
         <v>606</v>
       </c>
-      <c r="C5" t="s">
-        <v>579</v>
-      </c>
-      <c r="D5" t="s">
-        <v>607</v>
-      </c>
-      <c r="E5" t="s">
-        <v>576</v>
-      </c>
-      <c r="F5" t="s">
-        <v>575</v>
-      </c>
-      <c r="G5" t="s">
-        <v>608</v>
-      </c>
       <c r="H5" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6072,31 +6072,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6" t="s">
+        <v>605</v>
+      </c>
+      <c r="E6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F6" t="s">
+        <v>573</v>
+      </c>
+      <c r="G6" t="s">
         <v>609</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>594</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>610</v>
-      </c>
-      <c r="C6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" t="s">
-        <v>607</v>
-      </c>
-      <c r="E6" t="s">
-        <v>505</v>
-      </c>
-      <c r="F6" t="s">
-        <v>575</v>
-      </c>
-      <c r="G6" t="s">
-        <v>611</v>
-      </c>
-      <c r="H6" t="s">
-        <v>596</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -6123,19 +6123,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6143,7 +6143,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -6154,16 +6154,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6180,7 +6180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9700CE60-2D75-C740-95B2-953D04646640}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -6210,179 +6210,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>44</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>530</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>531</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>535</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>539</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>540</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D2" t="s">
         <v>542</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>544</v>
       </c>
-      <c r="E2" t="s">
-        <v>613</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" t="s">
+        <v>612</v>
+      </c>
+      <c r="I2" t="s">
         <v>545</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>546</v>
       </c>
-      <c r="H2" t="s">
-        <v>614</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>547</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>548</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>549</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>550</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>551</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>552</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>150</v>
+      </c>
+      <c r="R2" t="s">
         <v>553</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="27" t="s">
         <v>554</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R2" t="s">
-        <v>555</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="G3" t="s">
+        <v>544</v>
+      </c>
+      <c r="H3" t="s">
+        <v>613</v>
+      </c>
+      <c r="I3" t="s">
         <v>545</v>
       </c>
-      <c r="G3" t="s">
-        <v>546</v>
-      </c>
-      <c r="H3" t="s">
-        <v>615</v>
-      </c>
-      <c r="I3" t="s">
-        <v>547</v>
-      </c>
       <c r="J3" t="s">
+        <v>557</v>
+      </c>
+      <c r="K3" t="s">
+        <v>558</v>
+      </c>
+      <c r="L3" t="s">
         <v>559</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>549</v>
+      </c>
+      <c r="N3" t="s">
+        <v>550</v>
+      </c>
+      <c r="O3" t="s">
+        <v>551</v>
+      </c>
+      <c r="P3" t="s">
         <v>560</v>
       </c>
-      <c r="L3" t="s">
-        <v>561</v>
-      </c>
-      <c r="M3" t="s">
-        <v>551</v>
-      </c>
-      <c r="N3" t="s">
-        <v>552</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" t="s">
         <v>553</v>
       </c>
-      <c r="P3" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>152</v>
-      </c>
-      <c r="R3" t="s">
-        <v>555</v>
-      </c>
       <c r="S3" s="27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7FFC32-F0E7-D648-BC96-7637C888077C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9825002-3DAA-F143-AD1E-F55DDC9A2CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38480" yWindow="3000" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38480" yWindow="3000" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="616">
   <si>
     <t>Screening</t>
   </si>
@@ -2091,10 +2091,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2791,7 +2791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -5315,34 +5315,34 @@
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
@@ -5462,17 +5462,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5658,11 +5658,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" sqref="A1:H1048576"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5861,9 +5861,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -5887,9 +5885,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9825002-3DAA-F143-AD1E-F55DDC9A2CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5520166A-31C4-E244-9794-D105664DAD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38480" yWindow="3000" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="5" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="56940" yWindow="4280" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="617">
   <si>
     <t>Screening</t>
   </si>
@@ -1929,6 +1929,9 @@
   </si>
   <si>
     <t>Secondary Objective</t>
+  </si>
+  <si>
+    <t>intercurrentEventName</t>
   </si>
 </sst>
 </file>
@@ -2091,10 +2094,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3358,8 +3361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3385,7 +3388,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>423</v>
+        <v>616</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>44</v>
@@ -5315,34 +5318,34 @@
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
@@ -5462,17 +5465,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5658,7 +5661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5520166A-31C4-E244-9794-D105664DAD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD320F3-71DB-3541-95D9-F96B3C16F6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56940" yWindow="4280" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="43680" yWindow="2460" windowWidth="33600" windowHeight="19480" firstSheet="3" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="620">
   <si>
     <t>Screening</t>
   </si>
@@ -1933,12 +1933,21 @@
   <si>
     <t>intercurrentEventName</t>
   </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t>ICE Text</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1964,14 +1973,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2021,7 +2022,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2048,10 +2049,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2088,16 +2085,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2431,7 +2428,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>423</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2443,7 +2440,7 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -2455,10 +2452,10 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E3"/>
@@ -2467,7 +2464,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>513</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2479,7 +2476,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2491,7 +2488,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2503,7 +2500,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2515,10 +2512,10 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>116</v>
       </c>
       <c r="E8"/>
@@ -2527,7 +2524,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>104</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2536,12 +2533,12 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2555,7 +2552,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2569,7 +2566,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2581,10 +2578,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E13"/>
@@ -2593,7 +2590,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2655,16 +2652,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2721,28 +2718,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2813,37 +2810,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3359,54 +3356,61 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFC82B4-C495-A142-993D-B6A47D77A4C3}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="9.5" customWidth="1"/>
-    <col min="7" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="61.83203125" customWidth="1"/>
+    <col min="3" max="4" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="61.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K1" s="20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -3416,36 +3420,50 @@
       <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="E2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>511</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>79</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I3" t="s">
+      <c r="K2" s="10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D3" s="10"/>
+      <c r="J3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I4" t="s">
+      <c r="K3" s="10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D4" s="10"/>
+      <c r="J4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -3455,23 +3473,29 @@
       <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="E5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>129</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>512</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>75</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>80</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>130</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -3502,22 +3526,22 @@
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3590,31 +3614,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3766,22 +3790,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3908,16 +3932,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3925,7 +3949,7 @@
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="9" t="s">
         <v>227</v>
       </c>
@@ -3990,7 +4014,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>491</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -4020,7 +4044,7 @@
       <c r="A13" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="9" t="s">
         <v>238</v>
       </c>
@@ -4029,7 +4053,7 @@
       <c r="A14" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="9" t="s">
         <v>239</v>
       </c>
@@ -4038,7 +4062,7 @@
       <c r="A15" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="9" t="s">
         <v>240</v>
       </c>
@@ -4047,7 +4071,7 @@
       <c r="A16" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="9" t="s">
         <v>241</v>
       </c>
@@ -4056,7 +4080,7 @@
       <c r="A17" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="9" t="s">
         <v>242</v>
       </c>
@@ -4065,7 +4089,7 @@
       <c r="A18" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="9" t="s">
         <v>243</v>
       </c>
@@ -4074,7 +4098,7 @@
       <c r="A19" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="9" t="s">
         <v>244</v>
       </c>
@@ -4083,7 +4107,7 @@
       <c r="A20" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="9" t="s">
         <v>231</v>
       </c>
@@ -4092,7 +4116,7 @@
       <c r="A21" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="9" t="s">
         <v>245</v>
       </c>
@@ -4101,7 +4125,7 @@
       <c r="A22" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="9" t="s">
         <v>246</v>
       </c>
@@ -4110,7 +4134,7 @@
       <c r="A23" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="9" t="s">
         <v>247</v>
       </c>
@@ -4122,7 +4146,7 @@
       <c r="A24" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="9" t="s">
         <v>248</v>
       </c>
@@ -4134,7 +4158,7 @@
       <c r="A25" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="9" t="s">
         <v>249</v>
       </c>
@@ -4143,7 +4167,7 @@
       <c r="A26" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="9" t="s">
         <v>250</v>
       </c>
@@ -4152,7 +4176,7 @@
       <c r="A27" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="9" t="s">
         <v>251</v>
       </c>
@@ -4161,7 +4185,7 @@
       <c r="A28" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="9" t="s">
         <v>252</v>
       </c>
@@ -4170,7 +4194,7 @@
       <c r="A29" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="9" t="s">
         <v>253</v>
       </c>
@@ -4179,7 +4203,7 @@
       <c r="A30" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="9" t="s">
         <v>254</v>
       </c>
@@ -4188,7 +4212,7 @@
       <c r="A31" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="9" t="s">
         <v>255</v>
       </c>
@@ -4197,7 +4221,7 @@
       <c r="A32" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="9" t="s">
         <v>256</v>
       </c>
@@ -4206,7 +4230,7 @@
       <c r="A33" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="9" t="s">
         <v>257</v>
       </c>
@@ -4215,7 +4239,7 @@
       <c r="A34" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="9" t="s">
         <v>258</v>
       </c>
@@ -4224,7 +4248,7 @@
       <c r="A35" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="9" t="s">
         <v>259</v>
       </c>
@@ -4233,7 +4257,7 @@
       <c r="A36" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="9" t="s">
         <v>260</v>
       </c>
@@ -4242,7 +4266,7 @@
       <c r="A37" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="9" t="s">
         <v>261</v>
       </c>
@@ -4251,7 +4275,7 @@
       <c r="A38" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="9" t="s">
         <v>262</v>
       </c>
@@ -4260,7 +4284,7 @@
       <c r="A39" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="9" t="s">
         <v>263</v>
       </c>
@@ -4269,7 +4293,7 @@
       <c r="A40" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="9" t="s">
         <v>264</v>
       </c>
@@ -4278,7 +4302,7 @@
       <c r="A41" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="9" t="s">
         <v>265</v>
       </c>
@@ -4287,7 +4311,7 @@
       <c r="A42" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="9" t="s">
         <v>266</v>
       </c>
@@ -4296,7 +4320,7 @@
       <c r="A43" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="9" t="s">
         <v>267</v>
       </c>
@@ -4305,7 +4329,7 @@
       <c r="A44" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="9" t="s">
         <v>268</v>
       </c>
@@ -4317,7 +4341,7 @@
       <c r="A45" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="9" t="s">
         <v>269</v>
       </c>
@@ -4326,7 +4350,7 @@
       <c r="A46" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="9" t="s">
         <v>270</v>
       </c>
@@ -4335,7 +4359,7 @@
       <c r="A47" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="9" t="s">
         <v>271</v>
       </c>
@@ -4344,7 +4368,7 @@
       <c r="A48" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="9" t="s">
         <v>272</v>
       </c>
@@ -4353,7 +4377,7 @@
       <c r="A49" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="9" t="s">
         <v>273</v>
       </c>
@@ -4362,7 +4386,7 @@
       <c r="A50" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="9" t="s">
         <v>274</v>
       </c>
@@ -4371,7 +4395,7 @@
       <c r="A51" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="9" t="s">
         <v>356</v>
       </c>
@@ -4380,7 +4404,7 @@
       <c r="A52" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="9" t="s">
         <v>275</v>
       </c>
@@ -4389,7 +4413,7 @@
       <c r="A53" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="9" t="s">
         <v>276</v>
       </c>
@@ -4398,7 +4422,7 @@
       <c r="A54" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="9" t="s">
         <v>277</v>
       </c>
@@ -4407,7 +4431,7 @@
       <c r="A55" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="9" t="s">
         <v>278</v>
       </c>
@@ -4416,7 +4440,7 @@
       <c r="A56" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="9" t="s">
         <v>279</v>
       </c>
@@ -4425,7 +4449,7 @@
       <c r="A57" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="9" t="s">
         <v>280</v>
       </c>
@@ -4434,7 +4458,7 @@
       <c r="A58" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="9" t="s">
         <v>281</v>
       </c>
@@ -4443,7 +4467,7 @@
       <c r="A59" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="9" t="s">
         <v>282</v>
       </c>
@@ -4452,7 +4476,7 @@
       <c r="A60" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="9" t="s">
         <v>283</v>
       </c>
@@ -4461,7 +4485,7 @@
       <c r="A61" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="9" t="s">
         <v>284</v>
       </c>
@@ -4470,7 +4494,7 @@
       <c r="A62" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="9" t="s">
         <v>285</v>
       </c>
@@ -4479,7 +4503,7 @@
       <c r="A63" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="9" t="s">
         <v>286</v>
       </c>
@@ -4488,7 +4512,7 @@
       <c r="A64" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="9" t="s">
         <v>287</v>
       </c>
@@ -4497,7 +4521,7 @@
       <c r="A65" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="9" t="s">
         <v>288</v>
       </c>
@@ -4506,7 +4530,7 @@
       <c r="A66" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="9" t="s">
         <v>289</v>
       </c>
@@ -4515,7 +4539,7 @@
       <c r="A67" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="9" t="s">
         <v>290</v>
       </c>
@@ -4524,7 +4548,7 @@
       <c r="A68" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="9" t="s">
         <v>291</v>
       </c>
@@ -4533,7 +4557,7 @@
       <c r="A69" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="9" t="s">
         <v>292</v>
       </c>
@@ -4542,7 +4566,7 @@
       <c r="A70" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="9" t="s">
         <v>293</v>
       </c>
@@ -4551,7 +4575,7 @@
       <c r="A71" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="B71" s="24"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="9" t="s">
         <v>294</v>
       </c>
@@ -4560,7 +4584,7 @@
       <c r="A72" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B72" s="24"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="9" t="s">
         <v>295</v>
       </c>
@@ -4569,7 +4593,7 @@
       <c r="A73" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B73" s="24"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="9" t="s">
         <v>296</v>
       </c>
@@ -4578,7 +4602,7 @@
       <c r="A74" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="9" t="s">
         <v>297</v>
       </c>
@@ -4587,7 +4611,7 @@
       <c r="A75" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="9" t="s">
         <v>298</v>
       </c>
@@ -4596,7 +4620,7 @@
       <c r="A76" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="9" t="s">
         <v>299</v>
       </c>
@@ -4605,7 +4629,7 @@
       <c r="A77" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B77" s="24"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="9" t="s">
         <v>300</v>
       </c>
@@ -4614,7 +4638,7 @@
       <c r="A78" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B78" s="24"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="9" t="s">
         <v>301</v>
       </c>
@@ -4623,7 +4647,7 @@
       <c r="A79" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="B79" s="24"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="9" t="s">
         <v>302</v>
       </c>
@@ -4632,7 +4656,7 @@
       <c r="A80" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="B80" s="24"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="9" t="s">
         <v>303</v>
       </c>
@@ -4641,7 +4665,7 @@
       <c r="A81" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B81" s="24"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="9" t="s">
         <v>304</v>
       </c>
@@ -4650,7 +4674,7 @@
       <c r="A82" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="B82" s="24"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="9" t="s">
         <v>305</v>
       </c>
@@ -4659,7 +4683,7 @@
       <c r="A83" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="9" t="s">
         <v>306</v>
       </c>
@@ -4668,7 +4692,7 @@
       <c r="A84" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="9" t="s">
         <v>307</v>
       </c>
@@ -4677,7 +4701,7 @@
       <c r="A85" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="9" t="s">
         <v>308</v>
       </c>
@@ -4686,7 +4710,7 @@
       <c r="A86" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="9" t="s">
         <v>309</v>
       </c>
@@ -4695,7 +4719,7 @@
       <c r="A87" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="B87" s="24"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="9" t="s">
         <v>310</v>
       </c>
@@ -4704,7 +4728,7 @@
       <c r="A88" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="B88" s="24"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="9" t="s">
         <v>311</v>
       </c>
@@ -4713,7 +4737,7 @@
       <c r="A89" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B89" s="24"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="9" t="s">
         <v>312</v>
       </c>
@@ -4722,7 +4746,7 @@
       <c r="A90" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="B90" s="24"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="9" t="s">
         <v>313</v>
       </c>
@@ -4731,7 +4755,7 @@
       <c r="A91" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="9" t="s">
         <v>314</v>
       </c>
@@ -4740,7 +4764,7 @@
       <c r="A92" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="9" t="s">
         <v>315</v>
       </c>
@@ -4749,7 +4773,7 @@
       <c r="A93" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="B93" s="24"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="9" t="s">
         <v>316</v>
       </c>
@@ -4758,7 +4782,7 @@
       <c r="A94" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B94" s="24"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="9" t="s">
         <v>317</v>
       </c>
@@ -4767,7 +4791,7 @@
       <c r="A95" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="B95" s="24"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="9" t="s">
         <v>318</v>
       </c>
@@ -4776,7 +4800,7 @@
       <c r="A96" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B96" s="24"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="9" t="s">
         <v>319</v>
       </c>
@@ -4785,7 +4809,7 @@
       <c r="A97" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="B97" s="24"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="9" t="s">
         <v>320</v>
       </c>
@@ -4794,7 +4818,7 @@
       <c r="A98" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B98" s="24"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="9" t="s">
         <v>321</v>
       </c>
@@ -4803,7 +4827,7 @@
       <c r="A99" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="B99" s="24"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="9" t="s">
         <v>322</v>
       </c>
@@ -4812,7 +4836,7 @@
       <c r="A100" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="9" t="s">
         <v>323</v>
       </c>
@@ -4821,7 +4845,7 @@
       <c r="A101" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="9" t="s">
         <v>324</v>
       </c>
@@ -4830,7 +4854,7 @@
       <c r="A102" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="B102" s="24"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="9" t="s">
         <v>325</v>
       </c>
@@ -4839,7 +4863,7 @@
       <c r="A103" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="B103" s="24"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="9" t="s">
         <v>326</v>
       </c>
@@ -4848,7 +4872,7 @@
       <c r="A104" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B104" s="24"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="9" t="s">
         <v>327</v>
       </c>
@@ -4857,7 +4881,7 @@
       <c r="A105" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="B105" s="24"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="9" t="s">
         <v>328</v>
       </c>
@@ -4866,7 +4890,7 @@
       <c r="A106" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="B106" s="24"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="9" t="s">
         <v>329</v>
       </c>
@@ -4875,7 +4899,7 @@
       <c r="A107" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="B107" s="24"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="9" t="s">
         <v>330</v>
       </c>
@@ -4884,7 +4908,7 @@
       <c r="A108" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B108" s="24"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="9" t="s">
         <v>331</v>
       </c>
@@ -4893,7 +4917,7 @@
       <c r="A109" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B109" s="24"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="9" t="s">
         <v>332</v>
       </c>
@@ -4902,7 +4926,7 @@
       <c r="A110" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="B110" s="24"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="9" t="s">
         <v>333</v>
       </c>
@@ -4911,7 +4935,7 @@
       <c r="A111" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="B111" s="24"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="9" t="s">
         <v>334</v>
       </c>
@@ -4920,7 +4944,7 @@
       <c r="A112" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="B112" s="24"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="9" t="s">
         <v>335</v>
       </c>
@@ -4929,7 +4953,7 @@
       <c r="A113" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B113" s="24"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="9" t="s">
         <v>336</v>
       </c>
@@ -4938,7 +4962,7 @@
       <c r="A114" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B114" s="24"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="9" t="s">
         <v>337</v>
       </c>
@@ -4947,7 +4971,7 @@
       <c r="A115" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="B115" s="24"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="9" t="s">
         <v>338</v>
       </c>
@@ -4956,7 +4980,7 @@
       <c r="A116" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B116" s="24"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="9" t="s">
         <v>339</v>
       </c>
@@ -4965,7 +4989,7 @@
       <c r="A117" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="B117" s="24"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="9" t="s">
         <v>340</v>
       </c>
@@ -4974,7 +4998,7 @@
       <c r="A118" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="B118" s="24"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="9" t="s">
         <v>341</v>
       </c>
@@ -4983,7 +5007,7 @@
       <c r="A119" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="B119" s="24"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="9" t="s">
         <v>342</v>
       </c>
@@ -4992,7 +5016,7 @@
       <c r="A120" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="B120" s="24"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="9" t="s">
         <v>343</v>
       </c>
@@ -5001,7 +5025,7 @@
       <c r="A121" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="B121" s="24"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="9" t="s">
         <v>344</v>
       </c>
@@ -5010,7 +5034,7 @@
       <c r="A122" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="B122" s="24"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="9" t="s">
         <v>345</v>
       </c>
@@ -5019,7 +5043,7 @@
       <c r="A123" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B123" s="24"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="9" t="s">
         <v>346</v>
       </c>
@@ -5028,7 +5052,7 @@
       <c r="A124" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="B124" s="24"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="9" t="s">
         <v>347</v>
       </c>
@@ -5037,7 +5061,7 @@
       <c r="A125" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B125" s="24"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="9" t="s">
         <v>348</v>
       </c>
@@ -5046,7 +5070,7 @@
       <c r="A126" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B126" s="24"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="9" t="s">
         <v>349</v>
       </c>
@@ -5055,7 +5079,7 @@
       <c r="A127" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="B127" s="24"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="9" t="s">
         <v>350</v>
       </c>
@@ -5064,7 +5088,7 @@
       <c r="A128" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B128" s="24"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="9" t="s">
         <v>351</v>
       </c>
@@ -5073,7 +5097,7 @@
       <c r="A129" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="B129" s="24"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="9" t="s">
         <v>352</v>
       </c>
@@ -5082,7 +5106,7 @@
       <c r="A130" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="B130" s="24"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="9" t="s">
         <v>353</v>
       </c>
@@ -5091,7 +5115,7 @@
       <c r="A131" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B131" s="24"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="9" t="s">
         <v>354</v>
       </c>
@@ -5100,7 +5124,7 @@
       <c r="A132" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B132" s="24"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="9" t="s">
         <v>355</v>
       </c>
@@ -5193,25 +5217,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5282,126 +5306,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>175</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -5465,17 +5489,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5499,22 +5523,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5583,16 +5607,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5678,13 +5702,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>423</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5704,13 +5728,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -5730,13 +5754,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>495</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -5756,8 +5780,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -5777,8 +5801,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>580</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5798,8 +5822,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>582</v>
       </c>
       <c r="D6" s="2"/>
@@ -5811,7 +5835,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>583</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -5833,7 +5857,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>584</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -5853,13 +5877,13 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6121,19 +6145,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>221</v>
       </c>
     </row>
@@ -6208,61 +6232,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="20" t="s">
         <v>539</v>
       </c>
     </row>
@@ -6282,7 +6306,7 @@
       <c r="E2" t="s">
         <v>611</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>543</v>
       </c>
       <c r="G2" t="s">
@@ -6321,7 +6345,7 @@
       <c r="R2" t="s">
         <v>553</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="25" t="s">
         <v>554</v>
       </c>
     </row>
@@ -6341,7 +6365,7 @@
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="24" t="s">
         <v>543</v>
       </c>
       <c r="G3" t="s">
@@ -6380,7 +6404,7 @@
       <c r="R3" t="s">
         <v>553</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="25" t="s">
         <v>554</v>
       </c>
     </row>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A24A55D-4D97-254D-B3C5-609507E64C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF39DB1-CD3E-A847-ABF8-85F38F94D408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="2460" windowWidth="49620" windowHeight="25180" firstSheet="4" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="49620" windowHeight="25180" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="621">
   <si>
     <t>Screening</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>interventionModel</t>
-  </si>
-  <si>
-    <t>trialTypes</t>
   </si>
   <si>
     <t>DUNS</t>
@@ -1942,6 +1939,12 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>spare</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2068,9 +2071,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2411,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA772F-4124-4842-BA10-D27E5C5CE960}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2425,22 +2425,20 @@
     <col min="5" max="5" width="16" style="7" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="17" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
@@ -2450,9 +2448,8 @@
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
@@ -2462,125 +2459,109 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>16</v>
@@ -2588,50 +2569,31 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19" s="1"/>
-    </row>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2670,180 +2632,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>537</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C2" t="s">
         <v>539</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>540</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>609</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H2" t="s">
         <v>610</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>542</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>543</v>
       </c>
-      <c r="H2" t="s">
-        <v>611</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>544</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>545</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>546</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>547</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>548</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>549</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>550</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" t="s">
         <v>551</v>
       </c>
-      <c r="Q2" t="s">
-        <v>150</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="24" t="s">
         <v>552</v>
-      </c>
-      <c r="S2" s="25" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" t="s">
         <v>554</v>
       </c>
-      <c r="C3" t="s">
-        <v>555</v>
-      </c>
       <c r="D3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="G3" t="s">
         <v>542</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>611</v>
+      </c>
+      <c r="I3" t="s">
         <v>543</v>
       </c>
-      <c r="H3" t="s">
-        <v>612</v>
-      </c>
-      <c r="I3" t="s">
-        <v>544</v>
-      </c>
       <c r="J3" t="s">
+        <v>555</v>
+      </c>
+      <c r="K3" t="s">
         <v>556</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>557</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>547</v>
+      </c>
+      <c r="N3" t="s">
+        <v>548</v>
+      </c>
+      <c r="O3" t="s">
+        <v>549</v>
+      </c>
+      <c r="P3" t="s">
         <v>558</v>
       </c>
-      <c r="M3" t="s">
-        <v>548</v>
-      </c>
-      <c r="N3" t="s">
-        <v>549</v>
-      </c>
-      <c r="O3" t="s">
-        <v>550</v>
-      </c>
-      <c r="P3" t="s">
-        <v>559</v>
-      </c>
       <c r="Q3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R3" t="s">
+        <v>551</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>552</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -2867,45 +2829,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" t="s">
         <v>521</v>
       </c>
-      <c r="C2" t="s">
-        <v>522</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C3" t="s">
         <v>523</v>
       </c>
-      <c r="C3" t="s">
-        <v>524</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2933,37 +2895,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>568</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>49</v>
+      <c r="G1" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2" t="s">
         <v>563</v>
-      </c>
-      <c r="B2" t="s">
-        <v>564</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2972,29 +2934,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" t="s">
         <v>565</v>
       </c>
-      <c r="B3" t="s">
-        <v>566</v>
-      </c>
       <c r="G3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -3025,86 +2987,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="E1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>517</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
@@ -3113,16 +3075,16 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="9"/>
       <c r="K4" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3131,16 +3093,16 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3149,16 +3111,16 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3167,16 +3129,16 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3185,16 +3147,16 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3203,16 +3165,16 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3221,16 +3183,16 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="51" x14ac:dyDescent="0.2">
@@ -3239,16 +3201,16 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -3257,16 +3219,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -3275,16 +3237,16 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3591,126 +3553,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>614</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>616</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
         <v>98</v>
       </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>509</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
         <v>96</v>
       </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>510</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
       <c r="K2" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D3" s="10"/>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D4" s="10"/>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
         <v>126</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="E5" t="s">
         <v>127</v>
       </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>128</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
         <v>129</v>
       </c>
-      <c r="G5" t="s">
-        <v>511</v>
-      </c>
-      <c r="H5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>130</v>
-      </c>
       <c r="K5" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -3739,65 +3701,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
         <v>145</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" t="s">
         <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" t="s">
         <v>148</v>
       </c>
-      <c r="B3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" t="s">
         <v>150</v>
-      </c>
-      <c r="G3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3829,156 +3791,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="A1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="D1" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4005,123 +3967,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="A1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4147,1231 +4109,1231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="A1" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>225</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>492</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B13" s="22"/>
+        <v>356</v>
+      </c>
+      <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B14" s="22"/>
+        <v>366</v>
+      </c>
+      <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B15" s="22"/>
+        <v>367</v>
+      </c>
+      <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" s="22"/>
+        <v>368</v>
+      </c>
+      <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17" s="22"/>
+        <v>369</v>
+      </c>
+      <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B18" s="22"/>
+        <v>445</v>
+      </c>
+      <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="B19" s="22"/>
+        <v>446</v>
+      </c>
+      <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B20" s="22"/>
+        <v>423</v>
+      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B21" s="22"/>
+        <v>447</v>
+      </c>
+      <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="B22" s="22"/>
+        <v>448</v>
+      </c>
+      <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B23" s="22"/>
+        <v>449</v>
+      </c>
+      <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B24" s="22"/>
+        <v>450</v>
+      </c>
+      <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B25" s="22"/>
+        <v>451</v>
+      </c>
+      <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B26" s="22"/>
+        <v>412</v>
+      </c>
+      <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="B27" s="22"/>
+        <v>413</v>
+      </c>
+      <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B28" s="22"/>
+        <v>414</v>
+      </c>
+      <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B29" s="22"/>
+        <v>415</v>
+      </c>
+      <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="B30" s="22"/>
+        <v>452</v>
+      </c>
+      <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B31" s="22"/>
+        <v>424</v>
+      </c>
+      <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="B32" s="22"/>
+        <v>453</v>
+      </c>
+      <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B33" s="22"/>
+        <v>454</v>
+      </c>
+      <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B34" s="22"/>
+        <v>455</v>
+      </c>
+      <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="B35" s="22"/>
+        <v>370</v>
+      </c>
+      <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="B36" s="22"/>
+        <v>456</v>
+      </c>
+      <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B37" s="22"/>
+        <v>457</v>
+      </c>
+      <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B38" s="22"/>
+        <v>371</v>
+      </c>
+      <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="B39" s="22"/>
+        <v>372</v>
+      </c>
+      <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B40" s="22"/>
+        <v>373</v>
+      </c>
+      <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B41" s="22"/>
+        <v>458</v>
+      </c>
+      <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="B42" s="22"/>
+        <v>374</v>
+      </c>
+      <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="B43" s="22"/>
+        <v>375</v>
+      </c>
+      <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="B44" s="22"/>
+        <v>376</v>
+      </c>
+      <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B45" s="22"/>
+        <v>459</v>
+      </c>
+      <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B46" s="22"/>
+        <v>460</v>
+      </c>
+      <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="B47" s="22"/>
+        <v>377</v>
+      </c>
+      <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B48" s="22"/>
+        <v>378</v>
+      </c>
+      <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="B49" s="22"/>
+        <v>379</v>
+      </c>
+      <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="B50" s="22"/>
+        <v>380</v>
+      </c>
+      <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="B51" s="22"/>
+        <v>425</v>
+      </c>
+      <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="B52" s="22"/>
+        <v>461</v>
+      </c>
+      <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="B53" s="22"/>
+        <v>381</v>
+      </c>
+      <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="B54" s="22"/>
+        <v>382</v>
+      </c>
+      <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="B55" s="22"/>
+        <v>383</v>
+      </c>
+      <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="B56" s="22"/>
+        <v>463</v>
+      </c>
+      <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="B57" s="22"/>
+        <v>464</v>
+      </c>
+      <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="B58" s="22"/>
+        <v>465</v>
+      </c>
+      <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="B59" s="22"/>
+        <v>426</v>
+      </c>
+      <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B60" s="22"/>
+        <v>466</v>
+      </c>
+      <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B61" s="22"/>
+        <v>467</v>
+      </c>
+      <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="B62" s="22"/>
+        <v>468</v>
+      </c>
+      <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="B63" s="22"/>
+        <v>416</v>
+      </c>
+      <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="B64" s="22"/>
+        <v>384</v>
+      </c>
+      <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="B65" s="22"/>
+        <v>385</v>
+      </c>
+      <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="B66" s="22"/>
+        <v>386</v>
+      </c>
+      <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="B67" s="22"/>
+        <v>387</v>
+      </c>
+      <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="B68" s="22"/>
+        <v>469</v>
+      </c>
+      <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B69" s="22"/>
+        <v>417</v>
+      </c>
+      <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="B70" s="22"/>
+        <v>388</v>
+      </c>
+      <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="B71" s="22"/>
+        <v>389</v>
+      </c>
+      <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B72" s="22"/>
+        <v>390</v>
+      </c>
+      <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="B73" s="22"/>
+        <v>391</v>
+      </c>
+      <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="B74" s="22"/>
+        <v>392</v>
+      </c>
+      <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="B75" s="22"/>
+        <v>393</v>
+      </c>
+      <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="B76" s="22"/>
+        <v>394</v>
+      </c>
+      <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B77" s="22"/>
+        <v>395</v>
+      </c>
+      <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B78" s="22"/>
+        <v>396</v>
+      </c>
+      <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B79" s="22"/>
+        <v>470</v>
+      </c>
+      <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="B80" s="22"/>
+        <v>397</v>
+      </c>
+      <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B81" s="22"/>
+        <v>398</v>
+      </c>
+      <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B82" s="22"/>
+        <v>471</v>
+      </c>
+      <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="B83" s="22"/>
+        <v>399</v>
+      </c>
+      <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="B84" s="22"/>
+        <v>400</v>
+      </c>
+      <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B85" s="22"/>
+        <v>401</v>
+      </c>
+      <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="B86" s="22"/>
+        <v>402</v>
+      </c>
+      <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="B87" s="22"/>
+        <v>403</v>
+      </c>
+      <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="B88" s="22"/>
+        <v>472</v>
+      </c>
+      <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B89" s="22"/>
+        <v>473</v>
+      </c>
+      <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="B90" s="22"/>
+        <v>474</v>
+      </c>
+      <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B91" s="22"/>
+        <v>466</v>
+      </c>
+      <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B92" s="22"/>
+        <v>418</v>
+      </c>
+      <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="B93" s="22"/>
+        <v>427</v>
+      </c>
+      <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="B94" s="22"/>
+        <v>475</v>
+      </c>
+      <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B95" s="22"/>
+        <v>476</v>
+      </c>
+      <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="B96" s="22"/>
+        <v>404</v>
+      </c>
+      <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="B97" s="22"/>
+        <v>405</v>
+      </c>
+      <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="B98" s="22"/>
+        <v>406</v>
+      </c>
+      <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="B99" s="22"/>
+        <v>407</v>
+      </c>
+      <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="B100" s="22"/>
+        <v>408</v>
+      </c>
+      <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B101" s="22"/>
+        <v>477</v>
+      </c>
+      <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="B102" s="22"/>
+        <v>478</v>
+      </c>
+      <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B103" s="22"/>
+        <v>479</v>
+      </c>
+      <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B104" s="22"/>
+        <v>480</v>
+      </c>
+      <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B105" s="22"/>
+        <v>481</v>
+      </c>
+      <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B106" s="22"/>
+        <v>482</v>
+      </c>
+      <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B107" s="22"/>
+        <v>483</v>
+      </c>
+      <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="B108" s="22"/>
+        <v>428</v>
+      </c>
+      <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="B109" s="22"/>
+        <v>484</v>
+      </c>
+      <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>486</v>
-      </c>
-      <c r="B110" s="22"/>
+        <v>485</v>
+      </c>
+      <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="B111" s="22"/>
+        <v>486</v>
+      </c>
+      <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="B112" s="22"/>
+        <v>487</v>
+      </c>
+      <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="B113" s="22"/>
+        <v>488</v>
+      </c>
+      <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="B114" s="22"/>
+        <v>429</v>
+      </c>
+      <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B115" s="22"/>
+        <v>444</v>
+      </c>
+      <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B116" s="22"/>
+        <v>443</v>
+      </c>
+      <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B117" s="22"/>
+        <v>442</v>
+      </c>
+      <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="B118" s="22"/>
+        <v>430</v>
+      </c>
+      <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B119" s="22"/>
+        <v>441</v>
+      </c>
+      <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B120" s="22"/>
+        <v>440</v>
+      </c>
+      <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B121" s="22"/>
+        <v>439</v>
+      </c>
+      <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B122" s="22"/>
+        <v>438</v>
+      </c>
+      <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B123" s="22"/>
+        <v>431</v>
+      </c>
+      <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B124" s="22"/>
+        <v>437</v>
+      </c>
+      <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="B125" s="22"/>
+        <v>409</v>
+      </c>
+      <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="B126" s="22"/>
+        <v>410</v>
+      </c>
+      <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B127" s="22"/>
+        <v>411</v>
+      </c>
+      <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B128" s="22"/>
+        <v>436</v>
+      </c>
+      <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B129" s="22"/>
+        <v>435</v>
+      </c>
+      <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B130" s="22"/>
+        <v>434</v>
+      </c>
+      <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B131" s="22"/>
+        <v>432</v>
+      </c>
+      <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B132" s="22"/>
+        <v>433</v>
+      </c>
+      <c r="B132" s="21"/>
       <c r="C132" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -5395,18 +5357,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5418,7 +5380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5431,23 +5393,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>495</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>39</v>
+      <c r="C1" s="17" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5464,30 +5426,30 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -5510,11 +5472,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>619</v>
+      <c r="B1" s="18" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5527,10 +5489,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -5540,10 +5502,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5555,185 +5517,216 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+        <v>422</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
+        <v>494</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+        <v>619</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+        <v>133</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+        <v>134</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>620</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="D17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5771,23 +5764,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5795,19 +5788,19 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5821,13 +5814,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5855,17 +5848,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>43</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5873,13 +5866,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5887,13 +5880,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5901,13 +5894,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5915,13 +5908,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5951,68 +5944,68 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="C1" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>573</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>576</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6021,58 +6014,58 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6084,7 +6077,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6106,33 +6099,33 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6141,7 +6134,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -6207,135 +6200,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" t="s">
         <v>589</v>
-      </c>
-      <c r="B2" t="s">
-        <v>590</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="E2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G2" t="s">
         <v>591</v>
       </c>
-      <c r="E2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F2" t="s">
-        <v>571</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>592</v>
-      </c>
-      <c r="H2" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3" t="s">
         <v>594</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>595</v>
       </c>
-      <c r="C3" t="s">
-        <v>596</v>
-      </c>
       <c r="D3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F3" t="s">
         <v>571</v>
-      </c>
-      <c r="F3" t="s">
-        <v>572</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B4" t="s">
         <v>598</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D4" t="s">
         <v>599</v>
       </c>
-      <c r="C4" t="s">
-        <v>575</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F4" t="s">
+        <v>571</v>
+      </c>
+      <c r="G4" t="s">
         <v>600</v>
-      </c>
-      <c r="E4" t="s">
-        <v>572</v>
-      </c>
-      <c r="F4" t="s">
-        <v>572</v>
-      </c>
-      <c r="G4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B5" t="s">
         <v>602</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D5" t="s">
         <v>603</v>
       </c>
-      <c r="C5" t="s">
-        <v>576</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F5" t="s">
+        <v>571</v>
+      </c>
+      <c r="G5" t="s">
         <v>604</v>
       </c>
-      <c r="E5" t="s">
-        <v>573</v>
-      </c>
-      <c r="F5" t="s">
-        <v>572</v>
-      </c>
-      <c r="G5" t="s">
-        <v>605</v>
-      </c>
       <c r="H5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6343,31 +6336,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B6" t="s">
         <v>606</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E6" t="s">
+        <v>501</v>
+      </c>
+      <c r="F6" t="s">
+        <v>571</v>
+      </c>
+      <c r="G6" t="s">
         <v>607</v>
       </c>
-      <c r="C6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" t="s">
-        <v>604</v>
-      </c>
-      <c r="E6" t="s">
-        <v>502</v>
-      </c>
-      <c r="F6" t="s">
-        <v>572</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>592</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="H6" t="s">
-        <v>593</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -6394,19 +6387,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6414,7 +6407,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -6425,16 +6418,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF39DB1-CD3E-A847-ABF8-85F38F94D408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E54AA01-9504-AF4E-B488-7AAF8F5A0826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="49620" windowHeight="25180" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1920,12 +1920,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>intercurrentEventName</t>
   </si>
   <si>
@@ -1945,13 +1939,19 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1993,6 +1993,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2026,7 +2033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2092,10 +2099,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2968,7 +2978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -3030,8 +3040,8 @@
       <c r="D2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>612</v>
+      <c r="E2" s="10" t="s">
+        <v>619</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>78</v>
@@ -3054,8 +3064,8 @@
       <c r="D3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>613</v>
+      <c r="E3" s="28" t="s">
+        <v>620</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>79</v>
@@ -3563,10 +3573,10 @@
         <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>43</v>
@@ -3584,7 +3594,7 @@
         <v>91</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3619,7 +3629,7 @@
         <v>96</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3628,7 +3638,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3637,7 +3647,7 @@
         <v>124</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3672,7 +3682,7 @@
         <v>129</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -5476,7 +5486,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5504,7 +5514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CED36-1B68-6F40-B862-B156999A55CA}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -5552,34 +5562,34 @@
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -5594,7 +5604,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>119</v>
@@ -5658,7 +5668,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5730,17 +5740,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/integration_test_files/new_labels.xlsx
+++ b/tests/integration_test_files/new_labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E54AA01-9504-AF4E-B488-7AAF8F5A0826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8D86A4-1CEB-3A42-825E-226D439487DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="1" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -446,12 +446,6 @@
     <t>Really really bad shit</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -1945,6 +1939,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -2095,17 +2095,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2439,10 +2439,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>40</v>
@@ -2643,61 +2643,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>42</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>535</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>536</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -2705,58 +2705,58 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D2" t="s">
         <v>538</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>540</v>
       </c>
-      <c r="E2" t="s">
-        <v>609</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="H2" t="s">
+        <v>608</v>
+      </c>
+      <c r="I2" t="s">
         <v>541</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>542</v>
       </c>
-      <c r="H2" t="s">
-        <v>610</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>543</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>544</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>545</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>546</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>547</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>548</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>147</v>
+      </c>
+      <c r="R2" t="s">
         <v>549</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="24" t="s">
         <v>550</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" t="s">
-        <v>551</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2764,58 +2764,58 @@
         <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="23" t="s">
+        <v>539</v>
+      </c>
+      <c r="G3" t="s">
+        <v>540</v>
+      </c>
+      <c r="H3" t="s">
+        <v>609</v>
+      </c>
+      <c r="I3" t="s">
         <v>541</v>
       </c>
-      <c r="G3" t="s">
-        <v>542</v>
-      </c>
-      <c r="H3" t="s">
-        <v>611</v>
-      </c>
-      <c r="I3" t="s">
-        <v>543</v>
-      </c>
       <c r="J3" t="s">
+        <v>553</v>
+      </c>
+      <c r="K3" t="s">
+        <v>554</v>
+      </c>
+      <c r="L3" t="s">
         <v>555</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>545</v>
+      </c>
+      <c r="N3" t="s">
+        <v>546</v>
+      </c>
+      <c r="O3" t="s">
+        <v>547</v>
+      </c>
+      <c r="P3" t="s">
         <v>556</v>
       </c>
-      <c r="L3" t="s">
-        <v>557</v>
-      </c>
-      <c r="M3" t="s">
-        <v>547</v>
-      </c>
-      <c r="N3" t="s">
-        <v>548</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R3" t="s">
         <v>549</v>
       </c>
-      <c r="P3" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>149</v>
-      </c>
-      <c r="R3" t="s">
-        <v>551</v>
-      </c>
       <c r="S3" s="24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -2840,13 +2840,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>44</v>
@@ -2857,10 +2857,10 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>45</v>
@@ -2871,10 +2871,10 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>46</v>
@@ -2906,25 +2906,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>48</v>
@@ -2932,10 +2932,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2949,24 +2949,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" t="s">
         <v>564</v>
       </c>
-      <c r="B4" t="s">
-        <v>566</v>
-      </c>
       <c r="G4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -2978,7 +2978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -2998,16 +2998,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>51</v>
@@ -3019,13 +3019,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>515</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>516</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>517</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>53</v>
@@ -3041,7 +3041,7 @@
         <v>54</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>78</v>
@@ -3064,8 +3064,8 @@
       <c r="D3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>620</v>
+      <c r="E3" s="25" t="s">
+        <v>618</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>79</v>
@@ -3573,16 +3573,16 @@
         <v>47</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>92</v>
@@ -3594,7 +3594,7 @@
         <v>91</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3608,7 +3608,7 @@
         <v>94</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E2" t="s">
         <v>95</v>
@@ -3617,7 +3617,7 @@
         <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H2" t="s">
         <v>72</v>
@@ -3629,7 +3629,7 @@
         <v>96</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3638,7 +3638,7 @@
         <v>123</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3647,7 +3647,7 @@
         <v>124</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3661,7 +3661,7 @@
         <v>94</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E5" t="s">
         <v>127</v>
@@ -3670,7 +3670,7 @@
         <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H5" t="s">
         <v>74</v>
@@ -3682,7 +3682,7 @@
         <v>129</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -3714,62 +3714,62 @@
         <v>70</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>43</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
         <v>144</v>
-      </c>
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>148</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3805,152 +3805,152 @@
         <v>70</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>42</v>
       </c>
       <c r="F1" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="F5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3981,119 +3981,119 @@
         <v>70</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4120,16 +4120,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.2">
@@ -4138,1212 +4138,1212 @@
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>491</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B25" s="21"/>
       <c r="C25" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B26" s="21"/>
       <c r="C26" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B28" s="21"/>
       <c r="C28" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B37" s="21"/>
       <c r="C37" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B38" s="21"/>
       <c r="C38" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B39" s="21"/>
       <c r="C39" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B40" s="21"/>
       <c r="C40" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B42" s="21"/>
       <c r="C42" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B44" s="21"/>
       <c r="C44" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B45" s="21"/>
       <c r="C45" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B46" s="21"/>
       <c r="C46" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B47" s="21"/>
       <c r="C47" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B48" s="21"/>
       <c r="C48" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B50" s="21"/>
       <c r="C50" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B51" s="21"/>
       <c r="C51" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B52" s="21"/>
       <c r="C52" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B53" s="21"/>
       <c r="C53" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B54" s="21"/>
       <c r="C54" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B55" s="21"/>
       <c r="C55" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B57" s="21"/>
       <c r="C57" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B58" s="21"/>
       <c r="C58" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B60" s="21"/>
       <c r="C60" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B61" s="21"/>
       <c r="C61" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B62" s="21"/>
       <c r="C62" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B63" s="21"/>
       <c r="C63" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B64" s="21"/>
       <c r="C64" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B66" s="21"/>
       <c r="C66" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B68" s="21"/>
       <c r="C68" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B69" s="21"/>
       <c r="C69" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B70" s="21"/>
       <c r="C70" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B71" s="21"/>
       <c r="C71" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B72" s="21"/>
       <c r="C72" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B73" s="21"/>
       <c r="C73" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B74" s="21"/>
       <c r="C74" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B79" s="21"/>
       <c r="C79" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B80" s="21"/>
       <c r="C80" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B81" s="21"/>
       <c r="C81" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B82" s="21"/>
       <c r="C82" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B84" s="21"/>
       <c r="C84" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B85" s="21"/>
       <c r="C85" s="9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B86" s="21"/>
       <c r="C86" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B87" s="21"/>
       <c r="C87" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B88" s="21"/>
       <c r="C88" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B89" s="21"/>
       <c r="C89" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B90" s="21"/>
       <c r="C90" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B91" s="21"/>
       <c r="C91" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B92" s="21"/>
       <c r="C92" s="9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B93" s="21"/>
       <c r="C93" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B95" s="21"/>
       <c r="C95" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B96" s="21"/>
       <c r="C96" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B97" s="21"/>
       <c r="C97" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B98" s="21"/>
       <c r="C98" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B99" s="21"/>
       <c r="C99" s="9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B100" s="21"/>
       <c r="C100" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B101" s="21"/>
       <c r="C101" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B102" s="21"/>
       <c r="C102" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B103" s="21"/>
       <c r="C103" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B104" s="21"/>
       <c r="C104" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B105" s="21"/>
       <c r="C105" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B106" s="21"/>
       <c r="C106" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B107" s="21"/>
       <c r="C107" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B108" s="21"/>
       <c r="C108" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B109" s="21"/>
       <c r="C109" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B110" s="21"/>
       <c r="C110" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B111" s="21"/>
       <c r="C111" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B112" s="21"/>
       <c r="C112" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B113" s="21"/>
       <c r="C113" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B114" s="21"/>
       <c r="C114" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B115" s="21"/>
       <c r="C115" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B117" s="21"/>
       <c r="C117" s="9" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B119" s="21"/>
       <c r="C119" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B120" s="21"/>
       <c r="C120" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B121" s="21"/>
       <c r="C121" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B122" s="21"/>
       <c r="C122" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B123" s="21"/>
       <c r="C123" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B124" s="21"/>
       <c r="C124" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B125" s="21"/>
       <c r="C125" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B126" s="21"/>
       <c r="C126" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B128" s="21"/>
       <c r="C128" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B130" s="21"/>
       <c r="C130" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B131" s="21"/>
       <c r="C131" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B132" s="21"/>
       <c r="C132" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -5390,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9227F54-17C1-E44A-AD70-49AE8CBF35F9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5410,10 +5410,10 @@
         <v>18</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>42</v>
@@ -5436,10 +5436,10 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>620</v>
       </c>
       <c r="F2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5450,16 +5450,16 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>619</v>
       </c>
       <c r="F3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5486,7 +5486,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5502,7 +5502,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -5527,54 +5527,54 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+        <v>420</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+        <v>492</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="B4" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -5595,58 +5595,58 @@
       <c r="A7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="B8" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+        <v>131</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+        <v>132</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>40</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>27</v>
@@ -5697,16 +5697,16 @@
         <v>25</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5714,16 +5714,16 @@
         <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -5740,17 +5740,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5775,22 +5775,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>211</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5798,19 +5798,19 @@
         <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5824,13 +5824,13 @@
         <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5859,13 +5859,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>42</v>
@@ -5876,13 +5876,13 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5890,13 +5890,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5904,13 +5904,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5918,13 +5918,13 @@
         <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5954,36 +5954,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>43</v>
@@ -5992,30 +5992,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -6024,10 +6024,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6036,46 +6036,46 @@
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -6087,7 +6087,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -6109,22 +6109,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6135,7 +6135,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6210,135 +6210,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>585</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H2" t="s">
         <v>590</v>
-      </c>
-      <c r="E2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F2" t="s">
-        <v>570</v>
-      </c>
-      <c r="G2" t="s">
-        <v>591</v>
-      </c>
-      <c r="H2" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3" t="s">
         <v>593</v>
       </c>
-      <c r="B3" t="s">
-        <v>594</v>
-      </c>
-      <c r="C3" t="s">
-        <v>595</v>
-      </c>
       <c r="D3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" t="s">
+        <v>572</v>
+      </c>
+      <c r="D4" t="s">
         <v>597</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>569</v>
+      </c>
+      <c r="F4" t="s">
+        <v>569</v>
+      </c>
+      <c r="G4" t="s">
         <v>598</v>
-      </c>
-      <c r="C4" t="s">
-        <v>574</v>
-      </c>
-      <c r="D4" t="s">
-        <v>599</v>
-      </c>
-      <c r="E4" t="s">
-        <v>571</v>
-      </c>
-      <c r="F4" t="s">
-        <v>571</v>
-      </c>
-      <c r="G4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D5" t="s">
         <v>601</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G5" t="s">
         <v>602</v>
       </c>
-      <c r="C5" t="s">
-        <v>575</v>
-      </c>
-      <c r="D5" t="s">
-        <v>603</v>
-      </c>
-      <c r="E5" t="s">
-        <v>572</v>
-      </c>
-      <c r="F5" t="s">
-        <v>571</v>
-      </c>
-      <c r="G5" t="s">
-        <v>604</v>
-      </c>
       <c r="H5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -6346,31 +6346,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>601</v>
+      </c>
+      <c r="E6" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" t="s">
+        <v>569</v>
+      </c>
+      <c r="G6" t="s">
         <v>605</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>590</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>606</v>
-      </c>
-      <c r="C6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" t="s">
-        <v>603</v>
-      </c>
-      <c r="E6" t="s">
-        <v>501</v>
-      </c>
-      <c r="F6" t="s">
-        <v>571</v>
-      </c>
-      <c r="G6" t="s">
-        <v>607</v>
-      </c>
-      <c r="H6" t="s">
-        <v>592</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -6397,19 +6397,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -6417,7 +6417,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -6428,16 +6428,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
